--- a/HomePy_protocol_v0.5.xlsx
+++ b/HomePy_protocol_v0.5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="21420" windowHeight="10350"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="21420" windowHeight="10350" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Device type" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="591">
   <si>
     <t>온습도 센서</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -327,10 +327,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>가스 종류, 센서값</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>토양습도센서</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -351,10 +347,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>RGB 색상</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Flex 센서</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -375,10 +367,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>최대 4개 센서값</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>유속센서</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -391,58 +379,14 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>상태값, 인식값</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>DC 모터</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>x, y, z 축</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lat, Lang</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>x, y축 이동 거리</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>x, y축 거리, 버튼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>키 코드</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>서보 1, 2 회전각</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0~180</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0~255</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>서보모터</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>방향, 회전 속도</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>회전각</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>스텝모터</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -451,22 +395,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>open/close</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>MOSFET</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>on/off</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>동작코드</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>사용자 정의</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -475,42 +407,14 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>3축 자세 및 고도</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>RC 카</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>진행방향, 속도</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0, 1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>전원(0,1), RGB 색상</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>(0, 1), 0~255</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>스마트 필름</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>on, off</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>(0, 1)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>디스플레이</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -519,14 +423,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>x,y,z축 거리, 제스처</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0~255, 제스처 코드</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Data type</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -535,35 +431,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>0~65535</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>스피커</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>사용자지정가능</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>도트 매트릭스</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>동작코드, ASCII</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>7 segment</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>출력 숫자 4개</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0~9</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -696,18 +572,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>on/off</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>로봇팔</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>X, Y, Z, Grip</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>signed int (-127~127)</t>
   </si>
   <si>
@@ -754,10 +622,6 @@
   </si>
   <si>
     <t>0x09</t>
-  </si>
-  <si>
-    <t>방향, 회전스텝, 속도</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>7 segment int (0~9)</t>
@@ -1194,10 +1058,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>0~255</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>0x07</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1222,23 +1082,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>사용자정의</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>RC 카</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>속도, XY방향, 커맨드</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>비행체</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>속도, XYZ방향</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1619,10 +1467,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>동작코드, ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>바코드 리더</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1944,152 +1788,483 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>humidity</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>temperature</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>temperature</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x09</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Radiator</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 integer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>control sig 1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>control sig 2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>control sig 3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>control sig 4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TABLE : notifications</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>comp1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>comp2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>comp3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>comp4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>comp5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>comp6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>control signal 1 type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>control signal 1 data type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>control signal 2 type</t>
+  </si>
+  <si>
+    <t>control signal 3 type</t>
+  </si>
+  <si>
+    <t>control signal 4 type</t>
+  </si>
+  <si>
+    <t>control signal 2 data type</t>
+  </si>
+  <si>
+    <t>control signal 3 data type</t>
+  </si>
+  <si>
+    <t>control signal 4 data type</t>
+  </si>
+  <si>
+    <t>sensor data 1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensor data 2</t>
+  </si>
+  <si>
+    <t>sensor data 3</t>
+  </si>
+  <si>
+    <t>sensor data 4</t>
+  </si>
+  <si>
+    <t>comparison operator 1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>comparison operator 2</t>
+  </si>
+  <si>
+    <t>comparison operator 3</t>
+  </si>
+  <si>
+    <t>comparison operator 4</t>
+  </si>
+  <si>
+    <t>comparison value 1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>comparison value 2</t>
+  </si>
+  <si>
+    <t>comparison value 3</t>
+  </si>
+  <si>
+    <t>comparison value 4</t>
+  </si>
+  <si>
+    <t>data4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>temp1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>temp2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>temp3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(256),</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Float is not available now</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Optional</t>
+  </si>
+  <si>
+    <t>Optional</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mandatory</t>
+  </si>
+  <si>
+    <t>Mandatory</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x09</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>물 펌프</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 integer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IR thermometer</t>
+  </si>
+  <si>
+    <t>IR thermometer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>humidity sensor</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>thermo &amp; humi sensor</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>thermometer</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>humidity</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>temperature</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>temperature</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x09</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>vibration sensor</t>
+  </si>
+  <si>
+    <t>Tilt sensor</t>
+  </si>
+  <si>
+    <t>Illumination sensor</t>
+  </si>
+  <si>
+    <t>IR sensor</t>
+  </si>
+  <si>
+    <t>Magnetic reed sensor</t>
+  </si>
+  <si>
+    <t>Magnetic sensor</t>
+  </si>
+  <si>
+    <t>Magnetic hall sensor</t>
+  </si>
+  <si>
+    <t>Heart beat sensor</t>
+  </si>
+  <si>
+    <t>Sound sensor</t>
+  </si>
+  <si>
+    <t>Laser sensor</t>
+  </si>
+  <si>
+    <t>Flame sensor</t>
+  </si>
+  <si>
+    <t>Touch sensor</t>
+  </si>
+  <si>
+    <t>Motion sensor</t>
+  </si>
+  <si>
+    <t>Ultrawave sensor</t>
+  </si>
+  <si>
+    <t>Gas sensor</t>
+  </si>
+  <si>
+    <t>Soil moisture sensor</t>
+  </si>
+  <si>
+    <t>Water level sensor</t>
+  </si>
+  <si>
+    <t>Voltage sensor</t>
+  </si>
+  <si>
+    <t>Current sensor</t>
+  </si>
+  <si>
+    <t>Color sensor</t>
+  </si>
+  <si>
+    <t>Flex sensor</t>
+  </si>
+  <si>
+    <t>Pressure sensor</t>
+  </si>
+  <si>
+    <t>EMG sensor</t>
+  </si>
+  <si>
+    <t>Dust sensor</t>
+  </si>
+  <si>
+    <t>Water velocity meter</t>
+  </si>
+  <si>
+    <t>gyro sensor</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>accelerometer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compass magnetometer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Altitude sensor</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Finger Print sensor</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Barcode reader</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tactile button</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>switch</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>potentiometer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rotary encoder</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>keypad</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>keyboard</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mouse</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>joystick</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>motion controller</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D input pad</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>timer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IR LED</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Laser</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pan-tilt mount</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>smart film</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>display</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>speaker</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dot matrix</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>7 segment</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>thermal printer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>robot arm</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC car</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC plane</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC motor</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Servo motor</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stepper motor</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Solenoid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Valve</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOSFET</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transistor</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Relay</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water pump</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Light</t>
+  </si>
+  <si>
+    <t>Switch</t>
+  </si>
+  <si>
+    <t>Humidifier</t>
+  </si>
+  <si>
+    <t>Air purifier</t>
+  </si>
+  <si>
+    <t>RC toy</t>
+  </si>
+  <si>
+    <t>Camera</t>
+  </si>
+  <si>
+    <t>Drone</t>
+  </si>
+  <si>
+    <t>Remote controller</t>
   </si>
   <si>
     <t>Radiator</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 integer</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>control sig 1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>control sig 2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>control sig 3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>control sig 4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TABLE : notifications</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>comp1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>comp2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>comp3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>comp4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>comp5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>comp6</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>control signal 1 type</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>control signal 1 data type</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>control signal 2 type</t>
-  </si>
-  <si>
-    <t>control signal 3 type</t>
-  </si>
-  <si>
-    <t>control signal 4 type</t>
-  </si>
-  <si>
-    <t>control signal 2 data type</t>
-  </si>
-  <si>
-    <t>control signal 3 data type</t>
-  </si>
-  <si>
-    <t>control signal 4 data type</t>
-  </si>
-  <si>
-    <t>sensor data 1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>sensor data 2</t>
-  </si>
-  <si>
-    <t>sensor data 3</t>
-  </si>
-  <si>
-    <t>sensor data 4</t>
-  </si>
-  <si>
-    <t>comparison operator 1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>comparison operator 2</t>
-  </si>
-  <si>
-    <t>comparison operator 3</t>
-  </si>
-  <si>
-    <t>comparison operator 4</t>
-  </si>
-  <si>
-    <t>comparison value 1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>comparison value 2</t>
-  </si>
-  <si>
-    <t>comparison value 3</t>
-  </si>
-  <si>
-    <t>comparison value 4</t>
-  </si>
-  <si>
-    <t>data4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>temp1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>temp2</t>
+  </si>
+  <si>
+    <t>TABLE : macro</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>noti_id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT NOT NULL</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -2097,25 +2272,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>VARCHAR(256),</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Float is not available now</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Optional</t>
-  </si>
-  <si>
-    <t>Optional</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mandatory</t>
-  </si>
-  <si>
-    <t>Mandatory</t>
+    <t>temp4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT,</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2294,7 +2459,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2372,6 +2537,18 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2708,10 +2885,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y427"/>
+  <dimension ref="A1:Y430"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="E126" sqref="E126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2721,7 +2898,7 @@
     <col min="5" max="5" width="19.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.75" bestFit="1" customWidth="1"/>
     <col min="7" max="10" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
     <col min="12" max="12" width="11.25" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="11.25" customWidth="1"/>
     <col min="19" max="19" width="10.125" customWidth="1"/>
@@ -2754,39 +2931,39 @@
       <c r="Y4"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B5" s="27" t="s">
-        <v>491</v>
-      </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
+      <c r="B5" s="31" t="s">
+        <v>452</v>
+      </c>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
       <c r="T5"/>
       <c r="Y5"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>540</v>
+        <v>500</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>539</v>
+        <v>499</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>539</v>
+        <v>499</v>
       </c>
       <c r="G6" t="s">
-        <v>538</v>
+        <v>498</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>537</v>
+        <v>497</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>537</v>
+        <v>497</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>537</v>
+        <v>497</v>
       </c>
       <c r="T6"/>
       <c r="Y6"/>
@@ -2799,41 +2976,41 @@
         <v>4</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>500</v>
+        <v>460</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>501</v>
+        <v>461</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>502</v>
+        <v>462</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>503</v>
+        <v>463</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>492</v>
+        <v>453</v>
       </c>
       <c r="T7"/>
       <c r="Y7"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="33" t="s">
         <v>66</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="E8" t="s">
         <v>0</v>
@@ -2842,38 +3019,41 @@
         <v>1</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>494</v>
+        <v>454</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>495</v>
+        <v>455</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>493</v>
+        <v>507</v>
       </c>
       <c r="T8"/>
       <c r="Y8"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
-      <c r="B9" s="28"/>
+      <c r="B9" s="32"/>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>300</v>
+        <v>266</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>496</v>
+        <v>456</v>
+      </c>
+      <c r="K9" t="s">
+        <v>505</v>
       </c>
       <c r="T9"/>
       <c r="Y9"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
-      <c r="B10" s="28"/>
+      <c r="B10" s="32"/>
       <c r="C10" t="s">
         <v>10</v>
       </c>
@@ -2884,14 +3064,17 @@
         <v>8</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>494</v>
+        <v>454</v>
+      </c>
+      <c r="K10" t="s">
+        <v>506</v>
       </c>
       <c r="T10"/>
       <c r="Y10"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
-      <c r="B11" s="28"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="4" t="s">
         <v>11</v>
       </c>
@@ -2901,14 +3084,17 @@
       <c r="F11" t="s">
         <v>8</v>
       </c>
+      <c r="K11" t="s">
+        <v>508</v>
+      </c>
       <c r="T11"/>
       <c r="Y11"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
-      <c r="B12" s="28"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="4" t="s">
-        <v>275</v>
+        <v>241</v>
       </c>
       <c r="E12" t="s">
         <v>12</v>
@@ -2916,14 +3102,17 @@
       <c r="F12" t="s">
         <v>14</v>
       </c>
+      <c r="K12" s="28" t="s">
+        <v>509</v>
+      </c>
       <c r="T12"/>
       <c r="Y12"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
-      <c r="B13" s="28"/>
+      <c r="B13" s="32"/>
       <c r="C13" s="4" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c r="E13" t="s">
         <v>15</v>
@@ -2931,14 +3120,17 @@
       <c r="F13" t="s">
         <v>16</v>
       </c>
+      <c r="K13" s="28" t="s">
+        <v>510</v>
+      </c>
       <c r="T13"/>
       <c r="Y13"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
-      <c r="B14" s="28"/>
+      <c r="B14" s="32"/>
       <c r="C14" s="4" t="s">
-        <v>277</v>
+        <v>243</v>
       </c>
       <c r="E14" t="s">
         <v>48</v>
@@ -2946,14 +3138,17 @@
       <c r="F14" t="s">
         <v>16</v>
       </c>
+      <c r="K14" s="28" t="s">
+        <v>511</v>
+      </c>
       <c r="T14"/>
       <c r="Y14"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
-      <c r="B15" s="28"/>
+      <c r="B15" s="32"/>
       <c r="C15" s="4" t="s">
-        <v>278</v>
+        <v>244</v>
       </c>
       <c r="E15" t="s">
         <v>17</v>
@@ -2961,14 +3156,17 @@
       <c r="F15" t="s">
         <v>16</v>
       </c>
+      <c r="K15" s="28" t="s">
+        <v>512</v>
+      </c>
       <c r="T15"/>
       <c r="Y15"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
-      <c r="B16" s="28"/>
+      <c r="B16" s="32"/>
       <c r="C16" s="4" t="s">
-        <v>279</v>
+        <v>245</v>
       </c>
       <c r="E16" t="s">
         <v>28</v>
@@ -2976,14 +3174,17 @@
       <c r="F16" t="s">
         <v>16</v>
       </c>
+      <c r="K16" s="28" t="s">
+        <v>513</v>
+      </c>
       <c r="T16"/>
       <c r="Y16"/>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
-      <c r="B17" s="28"/>
+      <c r="B17" s="32"/>
       <c r="C17" s="4" t="s">
-        <v>280</v>
+        <v>246</v>
       </c>
       <c r="E17" t="s">
         <v>18</v>
@@ -2991,14 +3192,17 @@
       <c r="F17" t="s">
         <v>19</v>
       </c>
+      <c r="K17" s="28" t="s">
+        <v>514</v>
+      </c>
       <c r="T17"/>
       <c r="Y17"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
-      <c r="B18" s="28"/>
+      <c r="B18" s="32"/>
       <c r="C18" s="4" t="s">
-        <v>281</v>
+        <v>247</v>
       </c>
       <c r="E18" t="s">
         <v>25</v>
@@ -3006,14 +3210,17 @@
       <c r="F18" t="s">
         <v>13</v>
       </c>
+      <c r="K18" s="28" t="s">
+        <v>515</v>
+      </c>
       <c r="T18"/>
       <c r="Y18"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
-      <c r="B19" s="28"/>
+      <c r="B19" s="32"/>
       <c r="C19" s="4" t="s">
-        <v>282</v>
+        <v>248</v>
       </c>
       <c r="E19" t="s">
         <v>20</v>
@@ -3021,14 +3228,17 @@
       <c r="F19" t="s">
         <v>13</v>
       </c>
+      <c r="K19" s="28" t="s">
+        <v>516</v>
+      </c>
       <c r="T19"/>
       <c r="Y19"/>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
-      <c r="B20" s="28"/>
+      <c r="B20" s="32"/>
       <c r="C20" s="4" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="E20" t="s">
         <v>21</v>
@@ -3036,14 +3246,17 @@
       <c r="F20" t="s">
         <v>13</v>
       </c>
+      <c r="K20" s="28" t="s">
+        <v>504</v>
+      </c>
       <c r="T20"/>
       <c r="Y20"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
-      <c r="B21" s="28"/>
+      <c r="B21" s="32"/>
       <c r="C21" s="4" t="s">
-        <v>284</v>
+        <v>250</v>
       </c>
       <c r="E21" t="s">
         <v>22</v>
@@ -3051,14 +3264,17 @@
       <c r="F21" t="s">
         <v>13</v>
       </c>
+      <c r="K21" s="28" t="s">
+        <v>517</v>
+      </c>
       <c r="T21"/>
       <c r="Y21"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
-      <c r="B22" s="28"/>
+      <c r="B22" s="32"/>
       <c r="C22" s="4" t="s">
-        <v>285</v>
+        <v>251</v>
       </c>
       <c r="E22" t="s">
         <v>23</v>
@@ -3066,14 +3282,17 @@
       <c r="F22" t="s">
         <v>13</v>
       </c>
+      <c r="K22" s="28" t="s">
+        <v>518</v>
+      </c>
       <c r="T22"/>
       <c r="Y22"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
-      <c r="B23" s="28"/>
+      <c r="B23" s="32"/>
       <c r="C23" s="4" t="s">
-        <v>286</v>
+        <v>252</v>
       </c>
       <c r="E23" t="s">
         <v>24</v>
@@ -3081,12 +3300,15 @@
       <c r="F23" t="s">
         <v>13</v>
       </c>
+      <c r="K23" s="28" t="s">
+        <v>519</v>
+      </c>
       <c r="T23"/>
       <c r="Y23"/>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
-      <c r="B24" s="28"/>
+      <c r="B24" s="32"/>
       <c r="C24" s="4" t="s">
         <v>59</v>
       </c>
@@ -3096,14 +3318,17 @@
       <c r="F24" t="s">
         <v>50</v>
       </c>
+      <c r="K24" s="28" t="s">
+        <v>520</v>
+      </c>
       <c r="T24"/>
       <c r="Y24"/>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
-      <c r="B25" s="28"/>
+      <c r="B25" s="32"/>
       <c r="C25" s="4" t="s">
-        <v>287</v>
+        <v>253</v>
       </c>
       <c r="E25" t="s">
         <v>49</v>
@@ -3111,14 +3336,17 @@
       <c r="F25" t="s">
         <v>16</v>
       </c>
+      <c r="K25" s="28" t="s">
+        <v>521</v>
+      </c>
       <c r="T25"/>
       <c r="Y25"/>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
-      <c r="B26" s="28"/>
+      <c r="B26" s="32"/>
       <c r="C26" s="4" t="s">
-        <v>288</v>
+        <v>254</v>
       </c>
       <c r="E26" t="s">
         <v>74</v>
@@ -3126,14 +3354,17 @@
       <c r="F26" t="s">
         <v>16</v>
       </c>
+      <c r="K26" s="28" t="s">
+        <v>522</v>
+      </c>
       <c r="T26"/>
       <c r="Y26"/>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
-      <c r="B27" s="28"/>
+      <c r="B27" s="32"/>
       <c r="C27" s="4" t="s">
-        <v>289</v>
+        <v>255</v>
       </c>
       <c r="E27" t="s">
         <v>75</v>
@@ -3141,173 +3372,194 @@
       <c r="F27" t="s">
         <v>1</v>
       </c>
-      <c r="K27" t="s">
-        <v>76</v>
+      <c r="K27" s="28" t="s">
+        <v>523</v>
       </c>
       <c r="T27"/>
       <c r="Y27"/>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
-      <c r="B28" s="28"/>
+      <c r="B28" s="32"/>
       <c r="C28" s="4" t="s">
-        <v>290</v>
+        <v>256</v>
       </c>
       <c r="E28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F28" t="s">
         <v>16</v>
       </c>
+      <c r="K28" s="28" t="s">
+        <v>524</v>
+      </c>
       <c r="T28"/>
       <c r="Y28"/>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
-      <c r="B29" s="28"/>
+      <c r="B29" s="32"/>
       <c r="C29" s="4" t="s">
-        <v>291</v>
+        <v>257</v>
       </c>
       <c r="E29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F29" t="s">
         <v>16</v>
       </c>
+      <c r="K29" s="28" t="s">
+        <v>525</v>
+      </c>
       <c r="T29"/>
       <c r="Y29"/>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
-      <c r="B30" s="28"/>
+      <c r="B30" s="32"/>
       <c r="C30" s="4" t="s">
-        <v>292</v>
+        <v>258</v>
       </c>
       <c r="E30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F30" t="s">
         <v>43</v>
       </c>
+      <c r="K30" s="28" t="s">
+        <v>526</v>
+      </c>
       <c r="T30"/>
       <c r="Y30"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
-      <c r="B31" s="28"/>
+      <c r="B31" s="32"/>
       <c r="C31" s="4" t="s">
-        <v>293</v>
+        <v>259</v>
       </c>
       <c r="E31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F31" t="s">
         <v>16</v>
       </c>
+      <c r="K31" s="28" t="s">
+        <v>527</v>
+      </c>
       <c r="T31"/>
       <c r="Y31"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
-      <c r="B32" s="28"/>
+      <c r="B32" s="32"/>
       <c r="C32" s="4" t="s">
-        <v>294</v>
+        <v>260</v>
       </c>
       <c r="E32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F32" t="s">
         <v>41</v>
       </c>
-      <c r="K32" t="s">
-        <v>82</v>
-      </c>
-      <c r="L32" t="s">
-        <v>101</v>
+      <c r="K32" s="28" t="s">
+        <v>528</v>
       </c>
       <c r="T32"/>
       <c r="Y32"/>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
-      <c r="B33" s="28"/>
+      <c r="B33" s="32"/>
       <c r="C33" s="4" t="s">
-        <v>295</v>
+        <v>261</v>
       </c>
       <c r="E33" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F33" t="s">
         <v>16</v>
       </c>
+      <c r="K33" s="28" t="s">
+        <v>529</v>
+      </c>
       <c r="T33"/>
       <c r="Y33"/>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
-      <c r="B34" s="28"/>
+      <c r="B34" s="32"/>
       <c r="C34" s="4" t="s">
-        <v>296</v>
+        <v>262</v>
       </c>
       <c r="E34" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F34" t="s">
         <v>16</v>
       </c>
+      <c r="K34" s="28" t="s">
+        <v>530</v>
+      </c>
       <c r="T34"/>
       <c r="Y34"/>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
-      <c r="B35" s="28"/>
+      <c r="B35" s="32"/>
       <c r="C35" s="4" t="s">
-        <v>297</v>
+        <v>263</v>
       </c>
       <c r="E35" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F35" t="s">
         <v>57</v>
       </c>
-      <c r="K35" t="s">
-        <v>88</v>
+      <c r="K35" s="28" t="s">
+        <v>531</v>
       </c>
       <c r="T35"/>
       <c r="Y35"/>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
-      <c r="B36" s="28"/>
+      <c r="B36" s="32"/>
       <c r="C36" s="4" t="s">
-        <v>298</v>
+        <v>264</v>
       </c>
       <c r="E36" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F36" t="s">
         <v>16</v>
       </c>
+      <c r="K36" s="28" t="s">
+        <v>532</v>
+      </c>
       <c r="T36"/>
       <c r="Y36"/>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
-      <c r="B37" s="28"/>
+      <c r="B37" s="32"/>
       <c r="C37" s="4" t="s">
-        <v>299</v>
+        <v>265</v>
       </c>
       <c r="E37" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F37" t="s">
         <v>16</v>
       </c>
+      <c r="K37" s="28" t="s">
+        <v>533</v>
+      </c>
       <c r="T37"/>
       <c r="Y37"/>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B38" s="28"/>
+      <c r="B38" s="32"/>
       <c r="T38"/>
       <c r="Y38"/>
     </row>
@@ -3323,13 +3575,13 @@
       <c r="B41" t="s">
         <v>5</v>
       </c>
-      <c r="C41" s="28" t="s">
+      <c r="C41" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
       <c r="T41"/>
       <c r="Y41"/>
     </row>
@@ -3342,7 +3594,7 @@
       <c r="Y43"/>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B44" s="29" t="s">
+      <c r="B44" s="33" t="s">
         <v>67</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -3355,13 +3607,13 @@
         <v>42</v>
       </c>
       <c r="K44" t="s">
-        <v>94</v>
+        <v>535</v>
       </c>
       <c r="T44"/>
       <c r="Y44"/>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B45" s="28"/>
+      <c r="B45" s="32"/>
       <c r="C45" s="4" t="s">
         <v>5</v>
       </c>
@@ -3372,13 +3624,13 @@
         <v>42</v>
       </c>
       <c r="K45" t="s">
-        <v>94</v>
+        <v>534</v>
       </c>
       <c r="T45"/>
       <c r="Y45"/>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B46" s="28"/>
+      <c r="B46" s="32"/>
       <c r="C46" s="4" t="s">
         <v>10</v>
       </c>
@@ -3388,11 +3640,14 @@
       <c r="F46" t="s">
         <v>19</v>
       </c>
+      <c r="K46" t="s">
+        <v>536</v>
+      </c>
       <c r="T46"/>
       <c r="Y46"/>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B47" s="28"/>
+      <c r="B47" s="32"/>
       <c r="C47" s="4" t="s">
         <v>11</v>
       </c>
@@ -3402,56 +3657,59 @@
       <c r="F47" t="s">
         <v>16</v>
       </c>
+      <c r="K47" t="s">
+        <v>537</v>
+      </c>
       <c r="T47"/>
       <c r="Y47"/>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B48" s="28"/>
+      <c r="B48" s="32"/>
       <c r="C48" s="4" t="s">
-        <v>275</v>
+        <v>241</v>
       </c>
       <c r="E48" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F48" t="s">
         <v>9</v>
       </c>
       <c r="K48" t="s">
-        <v>95</v>
+        <v>538</v>
       </c>
       <c r="T48"/>
       <c r="Y48"/>
     </row>
     <row r="49" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B49" s="28"/>
+      <c r="B49" s="32"/>
       <c r="C49" s="4" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c r="E49" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F49" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K49" t="s">
-        <v>92</v>
+        <v>539</v>
       </c>
       <c r="T49"/>
       <c r="Y49"/>
     </row>
     <row r="50" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B50" s="28"/>
+      <c r="B50" s="32"/>
       <c r="C50" s="11" t="s">
-        <v>410</v>
+        <v>372</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>413</v>
+        <v>374</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>411</v>
+        <v>373</v>
       </c>
       <c r="K50" s="11" t="s">
-        <v>412</v>
+        <v>540</v>
       </c>
       <c r="T50"/>
       <c r="Y50"/>
@@ -3468,13 +3726,13 @@
       <c r="B53" t="s">
         <v>11</v>
       </c>
-      <c r="C53" s="28" t="s">
+      <c r="C53" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="D53" s="28"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="32"/>
       <c r="T53"/>
       <c r="Y53"/>
     </row>
@@ -3495,7 +3753,7 @@
       <c r="Y57"/>
     </row>
     <row r="58" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B58" s="29" t="s">
+      <c r="B58" s="33" t="s">
         <v>68</v>
       </c>
       <c r="C58" s="4" t="s">
@@ -3507,11 +3765,14 @@
       <c r="F58" t="s">
         <v>19</v>
       </c>
+      <c r="K58" t="s">
+        <v>541</v>
+      </c>
       <c r="T58"/>
       <c r="Y58"/>
     </row>
     <row r="59" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B59" s="28"/>
+      <c r="B59" s="32"/>
       <c r="C59" s="4" t="s">
         <v>5</v>
       </c>
@@ -3521,11 +3782,14 @@
       <c r="F59" t="s">
         <v>19</v>
       </c>
+      <c r="K59" t="s">
+        <v>542</v>
+      </c>
       <c r="T59"/>
       <c r="Y59"/>
     </row>
     <row r="60" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B60" s="28"/>
+      <c r="B60" s="32"/>
       <c r="C60" s="4" t="s">
         <v>10</v>
       </c>
@@ -3535,11 +3799,14 @@
       <c r="F60" t="s">
         <v>19</v>
       </c>
+      <c r="K60" t="s">
+        <v>543</v>
+      </c>
       <c r="T60"/>
       <c r="Y60"/>
     </row>
     <row r="61" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B61" s="28"/>
+      <c r="B61" s="32"/>
       <c r="C61" s="4" t="s">
         <v>11</v>
       </c>
@@ -3549,13 +3816,16 @@
       <c r="F61" t="s">
         <v>19</v>
       </c>
+      <c r="K61" t="s">
+        <v>544</v>
+      </c>
       <c r="T61"/>
       <c r="Y61"/>
     </row>
     <row r="62" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B62" s="28"/>
+      <c r="B62" s="32"/>
       <c r="C62" s="4" t="s">
-        <v>275</v>
+        <v>241</v>
       </c>
       <c r="E62" t="s">
         <v>33</v>
@@ -3564,15 +3834,15 @@
         <v>19</v>
       </c>
       <c r="K62" t="s">
-        <v>98</v>
+        <v>545</v>
       </c>
       <c r="T62"/>
       <c r="Y62"/>
     </row>
     <row r="63" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B63" s="28"/>
+      <c r="B63" s="32"/>
       <c r="C63" s="4" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c r="E63" t="s">
         <v>34</v>
@@ -3581,15 +3851,15 @@
         <v>19</v>
       </c>
       <c r="K63" t="s">
-        <v>98</v>
+        <v>546</v>
       </c>
       <c r="T63"/>
       <c r="Y63"/>
     </row>
     <row r="64" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B64" s="28"/>
+      <c r="B64" s="32"/>
       <c r="C64" s="4" t="s">
-        <v>277</v>
+        <v>243</v>
       </c>
       <c r="E64" t="s">
         <v>35</v>
@@ -3598,15 +3868,15 @@
         <v>1</v>
       </c>
       <c r="K64" t="s">
-        <v>96</v>
+        <v>547</v>
       </c>
       <c r="T64"/>
       <c r="Y64"/>
     </row>
     <row r="65" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B65" s="28"/>
+      <c r="B65" s="32"/>
       <c r="C65" s="4" t="s">
-        <v>278</v>
+        <v>244</v>
       </c>
       <c r="E65" t="s">
         <v>36</v>
@@ -3615,66 +3885,63 @@
         <v>42</v>
       </c>
       <c r="K65" t="s">
-        <v>97</v>
+        <v>548</v>
       </c>
       <c r="T65"/>
       <c r="Y65"/>
     </row>
     <row r="66" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B66" s="28"/>
+      <c r="B66" s="32"/>
       <c r="C66" s="4" t="s">
-        <v>279</v>
+        <v>245</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>311</v>
+        <v>276</v>
       </c>
       <c r="F66" s="4" t="s">
         <v>55</v>
       </c>
       <c r="K66" s="4" t="s">
-        <v>312</v>
+        <v>549</v>
       </c>
       <c r="T66"/>
       <c r="Y66"/>
     </row>
     <row r="67" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B67" s="28"/>
+      <c r="B67" s="32"/>
       <c r="C67" s="4" t="s">
-        <v>280</v>
+        <v>246</v>
       </c>
       <c r="E67" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="F67" t="s">
         <v>55</v>
       </c>
       <c r="K67" t="s">
-        <v>124</v>
-      </c>
-      <c r="L67" t="s">
-        <v>125</v>
+        <v>550</v>
       </c>
       <c r="T67"/>
       <c r="Y67"/>
     </row>
     <row r="68" spans="2:25" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="28"/>
+      <c r="B68" s="32"/>
       <c r="C68" s="4" t="s">
-        <v>194</v>
+        <v>160</v>
       </c>
       <c r="E68" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="F68" t="s">
         <v>16</v>
       </c>
       <c r="H68"/>
       <c r="K68" t="s">
-        <v>128</v>
+        <v>551</v>
       </c>
     </row>
     <row r="69" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B69" s="28"/>
+      <c r="B69" s="32"/>
       <c r="T69"/>
       <c r="Y69"/>
     </row>
@@ -3690,13 +3957,13 @@
       <c r="B72" t="s">
         <v>62</v>
       </c>
-      <c r="C72" s="28" t="s">
+      <c r="C72" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="D72" s="28"/>
-      <c r="E72" s="28"/>
-      <c r="F72" s="28"/>
-      <c r="G72" s="28"/>
+      <c r="D72" s="32"/>
+      <c r="E72" s="32"/>
+      <c r="F72" s="32"/>
+      <c r="G72" s="32"/>
       <c r="T72"/>
       <c r="Y72"/>
     </row>
@@ -3713,7 +3980,7 @@
       <c r="Y75"/>
     </row>
     <row r="76" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B76" s="29" t="s">
+      <c r="B76" s="33" t="s">
         <v>70</v>
       </c>
       <c r="C76" s="4" t="s">
@@ -3725,11 +3992,14 @@
       <c r="F76" t="s">
         <v>50</v>
       </c>
+      <c r="K76" s="28" t="s">
+        <v>44</v>
+      </c>
       <c r="T76"/>
       <c r="Y76"/>
     </row>
     <row r="77" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B77" s="28"/>
+      <c r="B77" s="32"/>
       <c r="C77" s="4" t="s">
         <v>5</v>
       </c>
@@ -3739,11 +4009,14 @@
       <c r="F77" t="s">
         <v>16</v>
       </c>
+      <c r="K77" s="28" t="s">
+        <v>45</v>
+      </c>
       <c r="T77"/>
       <c r="Y77"/>
     </row>
     <row r="78" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B78" s="28"/>
+      <c r="B78" s="32"/>
       <c r="C78" s="4" t="s">
         <v>10</v>
       </c>
@@ -3753,17 +4026,14 @@
       <c r="F78" t="s">
         <v>72</v>
       </c>
-      <c r="K78" t="s">
-        <v>82</v>
-      </c>
-      <c r="L78" t="s">
-        <v>101</v>
+      <c r="K78" s="28" t="s">
+        <v>46</v>
       </c>
       <c r="T78"/>
       <c r="Y78"/>
     </row>
     <row r="79" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B79" s="28"/>
+      <c r="B79" s="32"/>
       <c r="C79" s="4" t="s">
         <v>11</v>
       </c>
@@ -3773,13 +4043,16 @@
       <c r="F79" t="s">
         <v>50</v>
       </c>
+      <c r="K79" s="28" t="s">
+        <v>552</v>
+      </c>
       <c r="T79"/>
       <c r="Y79"/>
     </row>
     <row r="80" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B80" s="28"/>
+      <c r="B80" s="32"/>
       <c r="C80" s="4" t="s">
-        <v>275</v>
+        <v>241</v>
       </c>
       <c r="E80" t="s">
         <v>51</v>
@@ -3787,13 +4060,16 @@
       <c r="F80" t="s">
         <v>50</v>
       </c>
+      <c r="K80" t="s">
+        <v>553</v>
+      </c>
       <c r="T80"/>
       <c r="Y80"/>
     </row>
     <row r="81" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B81" s="28"/>
+      <c r="B81" s="32"/>
       <c r="C81" s="4" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c r="E81" t="s">
         <v>52</v>
@@ -3802,187 +4078,160 @@
         <v>71</v>
       </c>
       <c r="K81" t="s">
-        <v>99</v>
-      </c>
-      <c r="L81" t="s">
-        <v>100</v>
+        <v>554</v>
       </c>
       <c r="T81"/>
       <c r="Y81"/>
     </row>
     <row r="82" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B82" s="28"/>
+      <c r="B82" s="32"/>
       <c r="C82" s="4" t="s">
-        <v>277</v>
+        <v>243</v>
       </c>
       <c r="E82" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="F82" t="s">
         <v>16</v>
       </c>
       <c r="K82" t="s">
-        <v>120</v>
-      </c>
-      <c r="L82" t="s">
-        <v>121</v>
+        <v>555</v>
       </c>
       <c r="T82"/>
       <c r="Y82"/>
     </row>
     <row r="83" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B83" s="28"/>
+      <c r="B83" s="32"/>
       <c r="C83" s="4" t="s">
-        <v>278</v>
+        <v>244</v>
       </c>
       <c r="E83" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="F83" t="s">
         <v>55</v>
       </c>
       <c r="K83" t="s">
-        <v>110</v>
-      </c>
-      <c r="L83" t="s">
-        <v>130</v>
+        <v>556</v>
       </c>
       <c r="T83"/>
       <c r="Y83"/>
     </row>
     <row r="84" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B84" s="28"/>
+      <c r="B84" s="32"/>
       <c r="C84" s="4" t="s">
-        <v>279</v>
+        <v>245</v>
       </c>
       <c r="E84" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="F84" t="s">
         <v>57</v>
       </c>
       <c r="K84" t="s">
-        <v>110</v>
-      </c>
-      <c r="L84" t="s">
-        <v>130</v>
+        <v>557</v>
       </c>
       <c r="T84"/>
       <c r="Y84"/>
     </row>
     <row r="85" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B85" s="28"/>
+      <c r="B85" s="32"/>
       <c r="C85" s="4" t="s">
-        <v>280</v>
+        <v>246</v>
       </c>
       <c r="E85" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="F85" t="s">
         <v>57</v>
       </c>
       <c r="K85" t="s">
-        <v>132</v>
-      </c>
-      <c r="L85" t="s">
-        <v>130</v>
+        <v>558</v>
       </c>
       <c r="T85"/>
       <c r="Y85"/>
     </row>
     <row r="86" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B86" s="28"/>
+      <c r="B86" s="32"/>
       <c r="C86" s="4" t="s">
-        <v>281</v>
+        <v>247</v>
       </c>
       <c r="E86" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="F86" t="s">
         <v>57</v>
       </c>
       <c r="K86" t="s">
-        <v>134</v>
-      </c>
-      <c r="L86" t="s">
-        <v>135</v>
+        <v>559</v>
       </c>
       <c r="T86"/>
       <c r="Y86"/>
     </row>
     <row r="87" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B87" s="28"/>
+      <c r="B87" s="32"/>
       <c r="C87" s="4" t="s">
-        <v>282</v>
+        <v>248</v>
       </c>
       <c r="E87" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="F87" t="s">
         <v>57</v>
       </c>
       <c r="K87" t="s">
-        <v>132</v>
-      </c>
-      <c r="L87" t="s">
-        <v>130</v>
+        <v>560</v>
       </c>
       <c r="T87"/>
       <c r="Y87"/>
     </row>
     <row r="88" spans="2:25" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="28"/>
+      <c r="B88" s="32"/>
       <c r="C88" s="4" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>168</v>
+        <v>136</v>
       </c>
       <c r="F88" s="4" t="s">
         <v>55</v>
       </c>
       <c r="K88" s="4" t="s">
-        <v>169</v>
+        <v>561</v>
       </c>
     </row>
     <row r="89" spans="2:25" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="28"/>
+      <c r="B89" s="32"/>
       <c r="C89" s="4" t="s">
-        <v>197</v>
+        <v>163</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>313</v>
+        <v>277</v>
       </c>
       <c r="F89" s="4" t="s">
         <v>55</v>
       </c>
       <c r="K89" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="L89" s="4" t="s">
-        <v>130</v>
+        <v>562</v>
       </c>
     </row>
     <row r="90" spans="2:25" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="28"/>
+      <c r="B90" s="32"/>
       <c r="C90" s="4" t="s">
-        <v>198</v>
+        <v>164</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>315</v>
+        <v>278</v>
       </c>
       <c r="F90" s="4" t="s">
         <v>55</v>
       </c>
       <c r="K90" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="L90" s="4" t="s">
-        <v>130</v>
+        <v>563</v>
       </c>
     </row>
     <row r="91" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B91" s="28"/>
+      <c r="B91" s="32"/>
       <c r="T91"/>
       <c r="Y91"/>
     </row>
@@ -3998,13 +4247,13 @@
       <c r="B94" t="s">
         <v>64</v>
       </c>
-      <c r="C94" s="28" t="s">
+      <c r="C94" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="D94" s="28"/>
-      <c r="E94" s="28"/>
-      <c r="F94" s="28"/>
-      <c r="G94" s="28"/>
+      <c r="D94" s="32"/>
+      <c r="E94" s="32"/>
+      <c r="F94" s="32"/>
+      <c r="G94" s="32"/>
       <c r="T94"/>
       <c r="Y94"/>
     </row>
@@ -4017,173 +4266,173 @@
       <c r="Y96"/>
     </row>
     <row r="97" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B97" s="29" t="s">
-        <v>301</v>
+      <c r="B97" s="33" t="s">
+        <v>267</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E97" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F97" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K97" t="s">
-        <v>103</v>
+        <v>564</v>
       </c>
       <c r="T97"/>
       <c r="Y97"/>
     </row>
     <row r="98" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B98" s="28"/>
+      <c r="B98" s="32"/>
       <c r="C98" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E98" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="F98" t="s">
         <v>43</v>
       </c>
       <c r="K98" t="s">
-        <v>104</v>
+        <v>565</v>
       </c>
       <c r="T98"/>
       <c r="Y98"/>
     </row>
     <row r="99" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B99" s="28"/>
+      <c r="B99" s="32"/>
       <c r="C99" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="F99" t="s">
         <v>41</v>
       </c>
       <c r="K99" s="4" t="s">
-        <v>186</v>
+        <v>566</v>
       </c>
       <c r="T99"/>
       <c r="Y99"/>
     </row>
     <row r="100" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B100" s="28"/>
+      <c r="B100" s="32"/>
       <c r="C100" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="F100" t="s">
         <v>16</v>
       </c>
       <c r="K100" t="s">
-        <v>107</v>
-      </c>
-      <c r="L100" t="s">
-        <v>101</v>
+        <v>567</v>
       </c>
       <c r="T100"/>
       <c r="Y100"/>
     </row>
     <row r="101" spans="2:25" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="28"/>
+      <c r="B101" s="32"/>
       <c r="C101" s="4" t="s">
-        <v>275</v>
+        <v>241</v>
       </c>
       <c r="D101"/>
       <c r="E101" s="4" t="s">
-        <v>307</v>
+        <v>272</v>
       </c>
       <c r="F101" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K101" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="L101" s="4" t="s">
-        <v>101</v>
+        <v>568</v>
       </c>
     </row>
     <row r="102" spans="2:25" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="28"/>
+      <c r="B102" s="32"/>
       <c r="C102" s="4" t="s">
-        <v>303</v>
+        <v>269</v>
       </c>
       <c r="E102" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="F102" t="s">
         <v>16</v>
       </c>
       <c r="K102" t="s">
-        <v>109</v>
-      </c>
-      <c r="L102" t="s">
-        <v>101</v>
-      </c>
+        <v>569</v>
+      </c>
+      <c r="L102"/>
     </row>
     <row r="103" spans="2:25" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="28"/>
+      <c r="B103" s="32"/>
       <c r="C103" s="4" t="s">
-        <v>306</v>
+        <v>271</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>304</v>
+        <v>270</v>
       </c>
       <c r="F103" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K103" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="L103" s="4" t="s">
-        <v>305</v>
+        <v>570</v>
       </c>
     </row>
     <row r="104" spans="2:25" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="28"/>
+      <c r="B104" s="32"/>
       <c r="C104" s="4" t="s">
-        <v>308</v>
+        <v>273</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>309</v>
+        <v>274</v>
       </c>
       <c r="F104" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K104" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="105" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B105" s="28"/>
-      <c r="T105"/>
-      <c r="Y105"/>
+        <v>571</v>
+      </c>
+    </row>
+    <row r="105" spans="2:25" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B105" s="32"/>
+      <c r="C105" s="26" t="s">
+        <v>501</v>
+      </c>
+      <c r="E105" s="26" t="s">
+        <v>502</v>
+      </c>
+      <c r="F105" s="26" t="s">
+        <v>503</v>
+      </c>
+      <c r="K105" s="26" t="s">
+        <v>572</v>
+      </c>
     </row>
     <row r="106" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B106" s="32"/>
       <c r="T106"/>
       <c r="Y106"/>
     </row>
     <row r="107" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B107" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="C107" s="28" t="s">
-        <v>302</v>
-      </c>
-      <c r="D107" s="28"/>
-      <c r="E107" s="28"/>
-      <c r="F107" s="28"/>
-      <c r="G107" s="28"/>
-      <c r="H107" s="28"/>
       <c r="T107"/>
       <c r="Y107"/>
     </row>
     <row r="108" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B108" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="C108" s="32" t="s">
+        <v>268</v>
+      </c>
+      <c r="D108" s="32"/>
+      <c r="E108" s="32"/>
+      <c r="F108" s="32"/>
+      <c r="G108" s="32"/>
+      <c r="H108" s="32"/>
       <c r="T108"/>
       <c r="Y108"/>
     </row>
@@ -4196,179 +4445,165 @@
       <c r="Y110"/>
     </row>
     <row r="111" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B111" s="29" t="s">
-        <v>359</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E111" t="s">
-        <v>56</v>
-      </c>
-      <c r="F111" t="s">
-        <v>57</v>
-      </c>
-      <c r="K111" t="s">
-        <v>117</v>
-      </c>
-      <c r="L111" t="s">
-        <v>118</v>
-      </c>
       <c r="T111"/>
       <c r="Y111"/>
     </row>
     <row r="112" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B112" s="28"/>
+      <c r="B112" s="33" t="s">
+        <v>321</v>
+      </c>
       <c r="C112" s="4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E112" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="F112" t="s">
-        <v>50</v>
-      </c>
-      <c r="K112" t="s">
-        <v>109</v>
-      </c>
-      <c r="L112" t="s">
-        <v>116</v>
+        <v>57</v>
+      </c>
+      <c r="K112" s="28" t="s">
+        <v>573</v>
       </c>
       <c r="T112"/>
       <c r="Y112"/>
     </row>
     <row r="113" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B113" s="28"/>
+      <c r="B113" s="32"/>
       <c r="C113" s="4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E113" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="F113" t="s">
-        <v>16</v>
-      </c>
-      <c r="K113" t="s">
-        <v>110</v>
+        <v>50</v>
+      </c>
+      <c r="K113" s="28" t="s">
+        <v>574</v>
       </c>
       <c r="T113"/>
       <c r="Y113"/>
     </row>
     <row r="114" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B114" s="28"/>
+      <c r="B114" s="32"/>
       <c r="C114" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F114" t="s">
         <v>16</v>
       </c>
-      <c r="K114" t="s">
-        <v>110</v>
+      <c r="K114" s="28" t="s">
+        <v>575</v>
       </c>
       <c r="T114"/>
       <c r="Y114"/>
     </row>
     <row r="115" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B115" s="28"/>
+      <c r="B115" s="32"/>
       <c r="C115" s="4" t="s">
-        <v>275</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="F115" t="s">
-        <v>1</v>
-      </c>
-      <c r="K115" t="s">
-        <v>115</v>
+        <v>16</v>
+      </c>
+      <c r="K115" s="28" t="s">
+        <v>576</v>
       </c>
       <c r="T115"/>
       <c r="Y115"/>
     </row>
     <row r="116" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B116" s="28"/>
+      <c r="B116" s="32"/>
       <c r="C116" s="4" t="s">
-        <v>303</v>
+        <v>241</v>
       </c>
       <c r="E116" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="F116" t="s">
-        <v>16</v>
-      </c>
-      <c r="K116" t="s">
-        <v>110</v>
+        <v>1</v>
+      </c>
+      <c r="K116" s="28" t="s">
+        <v>577</v>
       </c>
       <c r="T116"/>
       <c r="Y116"/>
     </row>
-    <row r="117" spans="2:25" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="28"/>
+    <row r="117" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B117" s="32"/>
       <c r="C117" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="D117"/>
+        <v>269</v>
+      </c>
       <c r="E117" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="F117" t="s">
+        <v>16</v>
+      </c>
+      <c r="K117" s="28" t="s">
+        <v>578</v>
+      </c>
+      <c r="T117"/>
+      <c r="Y117"/>
+    </row>
+    <row r="118" spans="2:25" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B118" s="32"/>
+      <c r="C118" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="D118"/>
+      <c r="E118" t="s">
+        <v>95</v>
+      </c>
+      <c r="F118" t="s">
         <v>55</v>
       </c>
-      <c r="K117" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="118" spans="2:25" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B118" s="28"/>
-      <c r="C118" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="E118" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="F118" s="4" t="s">
+      <c r="K118" s="28" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="119" spans="2:25" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B119" s="32"/>
+      <c r="C119" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="F119" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K118" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="119" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B119" s="28"/>
-      <c r="C119" s="11" t="s">
-        <v>497</v>
-      </c>
-      <c r="E119" s="11" t="s">
-        <v>498</v>
-      </c>
-      <c r="F119" s="11" t="s">
-        <v>499</v>
-      </c>
-      <c r="T119"/>
-      <c r="Y119"/>
-    </row>
-    <row r="120" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="T120"/>
-      <c r="Y120"/>
-    </row>
-    <row r="121" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="T121"/>
-      <c r="Y121"/>
+      <c r="K119" s="28" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="120" spans="2:25" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B120" s="32"/>
+      <c r="C120" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="D120"/>
+      <c r="E120" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="F120" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="K120" s="28" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="121" spans="2:25" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B121" s="32"/>
     </row>
     <row r="122" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B122" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="C122" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="D122" s="28"/>
-      <c r="E122" s="28"/>
-      <c r="F122" s="28"/>
-      <c r="G122" s="28"/>
+      <c r="B122" s="32"/>
       <c r="T122"/>
       <c r="Y122"/>
     </row>
@@ -4381,6 +4616,16 @@
       <c r="Y124"/>
     </row>
     <row r="125" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B125" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="C125" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="D125" s="32"/>
+      <c r="E125" s="32"/>
+      <c r="F125" s="32"/>
+      <c r="G125" s="32"/>
       <c r="T125"/>
       <c r="Y125"/>
     </row>
@@ -4389,17 +4634,6 @@
       <c r="Y126"/>
     </row>
     <row r="127" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B127" t="s">
-        <v>165</v>
-      </c>
-      <c r="C127" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="D127" s="26"/>
-      <c r="E127" s="26"/>
-      <c r="F127" s="26"/>
-      <c r="G127" s="26"/>
-      <c r="H127" s="26"/>
       <c r="T127"/>
       <c r="Y127"/>
     </row>
@@ -4407,67 +4641,78 @@
       <c r="T128"/>
       <c r="Y128"/>
     </row>
-    <row r="129" spans="20:25" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:25" x14ac:dyDescent="0.3">
       <c r="T129"/>
       <c r="Y129"/>
     </row>
-    <row r="130" spans="20:25" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B130" t="s">
+        <v>134</v>
+      </c>
+      <c r="C130" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="D130" s="30"/>
+      <c r="E130" s="30"/>
+      <c r="F130" s="30"/>
+      <c r="G130" s="30"/>
+      <c r="H130" s="30"/>
       <c r="T130"/>
       <c r="Y130"/>
     </row>
-    <row r="131" spans="20:25" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:25" x14ac:dyDescent="0.3">
       <c r="T131"/>
       <c r="Y131"/>
     </row>
-    <row r="132" spans="20:25" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:25" x14ac:dyDescent="0.3">
       <c r="T132"/>
       <c r="Y132"/>
     </row>
-    <row r="133" spans="20:25" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:25" x14ac:dyDescent="0.3">
       <c r="T133"/>
       <c r="Y133"/>
     </row>
-    <row r="134" spans="20:25" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:25" x14ac:dyDescent="0.3">
       <c r="T134"/>
       <c r="Y134"/>
     </row>
-    <row r="135" spans="20:25" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:25" x14ac:dyDescent="0.3">
       <c r="T135"/>
       <c r="Y135"/>
     </row>
-    <row r="136" spans="20:25" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:25" x14ac:dyDescent="0.3">
       <c r="T136"/>
       <c r="Y136"/>
     </row>
-    <row r="137" spans="20:25" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:25" x14ac:dyDescent="0.3">
       <c r="T137"/>
       <c r="Y137"/>
     </row>
-    <row r="138" spans="20:25" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:25" x14ac:dyDescent="0.3">
       <c r="T138"/>
       <c r="Y138"/>
     </row>
-    <row r="139" spans="20:25" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:25" x14ac:dyDescent="0.3">
       <c r="T139"/>
       <c r="Y139"/>
     </row>
-    <row r="140" spans="20:25" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:25" x14ac:dyDescent="0.3">
       <c r="T140"/>
       <c r="Y140"/>
     </row>
-    <row r="141" spans="20:25" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:25" x14ac:dyDescent="0.3">
       <c r="T141"/>
       <c r="Y141"/>
     </row>
-    <row r="142" spans="20:25" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:25" x14ac:dyDescent="0.3">
       <c r="T142"/>
       <c r="Y142"/>
     </row>
-    <row r="143" spans="20:25" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:25" x14ac:dyDescent="0.3">
       <c r="T143"/>
       <c r="Y143"/>
     </row>
-    <row r="144" spans="20:25" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:25" x14ac:dyDescent="0.3">
       <c r="T144"/>
       <c r="Y144"/>
     </row>
@@ -5603,16 +5848,28 @@
       <c r="T427"/>
       <c r="Y427"/>
     </row>
+    <row r="428" spans="20:25" x14ac:dyDescent="0.3">
+      <c r="T428"/>
+      <c r="Y428"/>
+    </row>
+    <row r="429" spans="20:25" x14ac:dyDescent="0.3">
+      <c r="T429"/>
+      <c r="Y429"/>
+    </row>
+    <row r="430" spans="20:25" x14ac:dyDescent="0.3">
+      <c r="T430"/>
+      <c r="Y430"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="C127:H127"/>
+    <mergeCell ref="C130:H130"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="C72:G72"/>
-    <mergeCell ref="B111:B119"/>
-    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="B112:B122"/>
+    <mergeCell ref="C125:G125"/>
     <mergeCell ref="B76:B91"/>
-    <mergeCell ref="C107:H107"/>
-    <mergeCell ref="B97:B105"/>
+    <mergeCell ref="C108:H108"/>
+    <mergeCell ref="B97:B106"/>
     <mergeCell ref="C94:G94"/>
     <mergeCell ref="B58:B69"/>
     <mergeCell ref="C41:G41"/>
@@ -5648,46 +5905,46 @@
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B2" s="11"/>
-      <c r="C2" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
+      <c r="C2" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
       <c r="I2" s="11"/>
-      <c r="J2" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
+      <c r="J2" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="11">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
+        <v>125</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
       <c r="G3" s="17" t="s">
-        <v>414</v>
+        <v>375</v>
       </c>
       <c r="I3" s="11"/>
       <c r="J3" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="K3" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="L3" s="31"/>
+        <v>122</v>
+      </c>
+      <c r="K3" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="L3" s="35"/>
       <c r="M3" s="17" t="s">
-        <v>154</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
@@ -5695,26 +5952,26 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
+        <v>124</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
       <c r="G4" s="17" t="s">
-        <v>414</v>
+        <v>375</v>
       </c>
       <c r="I4" s="11"/>
       <c r="J4" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="K4" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="L4" s="26"/>
+        <v>124</v>
+      </c>
+      <c r="K4" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="L4" s="30"/>
       <c r="M4" s="17" t="s">
-        <v>154</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
@@ -5724,20 +5981,20 @@
       <c r="C5" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
+      <c r="D5" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
       <c r="G5" s="17"/>
       <c r="I5" s="11"/>
       <c r="J5" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="K5" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="L5" s="26"/>
+      <c r="K5" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="L5" s="30"/>
       <c r="M5" s="17"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
@@ -5747,20 +6004,20 @@
       <c r="C6" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
+      <c r="D6" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
       <c r="G6" s="17"/>
       <c r="I6" s="11"/>
       <c r="J6" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="K6" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="L6" s="26"/>
+      <c r="K6" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="L6" s="30"/>
       <c r="M6" s="17"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
@@ -5770,20 +6027,20 @@
       <c r="C7" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
+      <c r="D7" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
       <c r="G7" s="17"/>
       <c r="I7" s="11"/>
       <c r="J7" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="K7" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="L7" s="26"/>
+      <c r="K7" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="L7" s="30"/>
       <c r="M7" s="17"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
@@ -5793,20 +6050,20 @@
       <c r="C8" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="26" t="s">
-        <v>403</v>
-      </c>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
+      <c r="D8" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
       <c r="G8" s="17"/>
       <c r="I8" s="11"/>
       <c r="J8" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="K8" s="26" t="s">
-        <v>403</v>
-      </c>
-      <c r="L8" s="26"/>
+      <c r="K8" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="L8" s="30"/>
       <c r="M8" s="17"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.3">
@@ -5816,30 +6073,30 @@
       <c r="C9" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="34" t="s">
-        <v>145</v>
-      </c>
-      <c r="E9" s="34" t="s">
-        <v>146</v>
+      <c r="D9" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>115</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>487</v>
+        <v>448</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>488</v>
+        <v>449</v>
       </c>
       <c r="I9" s="11"/>
       <c r="J9" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="K9" s="34" t="s">
-        <v>145</v>
-      </c>
-      <c r="L9" s="34" t="s">
-        <v>146</v>
+      <c r="K9" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="L9" s="38" t="s">
+        <v>115</v>
       </c>
       <c r="M9" s="17" t="s">
-        <v>418</v>
+        <v>379</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
@@ -5849,18 +6106,18 @@
       <c r="C10" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
       <c r="F10" s="9" t="s">
-        <v>329</v>
+        <v>291</v>
       </c>
       <c r="G10" s="17"/>
       <c r="I10" s="11"/>
       <c r="J10" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
       <c r="M10" s="17"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">
@@ -5870,24 +6127,24 @@
       <c r="C11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="E11" s="26"/>
+      <c r="D11" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="E11" s="30"/>
       <c r="F11" s="10" t="s">
-        <v>487</v>
+        <v>448</v>
       </c>
       <c r="G11" s="17"/>
       <c r="I11" s="11"/>
       <c r="J11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="K11" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="L11" s="26"/>
+      <c r="K11" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="L11" s="30"/>
       <c r="M11" s="17" t="s">
-        <v>419</v>
+        <v>380</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
@@ -5897,18 +6154,18 @@
       <c r="C12" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
       <c r="F12" s="9" t="s">
-        <v>329</v>
+        <v>291</v>
       </c>
       <c r="G12" s="17"/>
       <c r="I12" s="11"/>
       <c r="J12" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
       <c r="M12" s="17"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
@@ -5918,28 +6175,28 @@
       <c r="C13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="34" t="s">
-        <v>149</v>
-      </c>
-      <c r="E13" s="34" t="s">
-        <v>147</v>
+      <c r="D13" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="E13" s="38" t="s">
+        <v>116</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>487</v>
+        <v>448</v>
       </c>
       <c r="G13" s="17"/>
       <c r="I13" s="11"/>
       <c r="J13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="K13" s="34" t="s">
-        <v>149</v>
-      </c>
-      <c r="L13" s="34" t="s">
-        <v>147</v>
+      <c r="K13" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="L13" s="38" t="s">
+        <v>116</v>
       </c>
       <c r="M13" s="17" t="s">
-        <v>424</v>
+        <v>385</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
@@ -5949,18 +6206,18 @@
       <c r="C14" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
       <c r="F14" s="9" t="s">
-        <v>329</v>
+        <v>291</v>
       </c>
       <c r="G14" s="17"/>
       <c r="I14" s="11"/>
       <c r="J14" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
       <c r="M14" s="17"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
@@ -5970,24 +6227,24 @@
       <c r="C15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="E15" s="26"/>
+      <c r="D15" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="E15" s="30"/>
       <c r="F15" s="10" t="s">
-        <v>487</v>
+        <v>448</v>
       </c>
       <c r="G15" s="17"/>
       <c r="I15" s="11"/>
       <c r="J15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="K15" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="L15" s="26"/>
+      <c r="K15" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="L15" s="30"/>
       <c r="M15" s="17" t="s">
-        <v>425</v>
+        <v>386</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.3">
@@ -5997,18 +6254,18 @@
       <c r="C16" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
       <c r="F16" s="9" t="s">
-        <v>329</v>
+        <v>291</v>
       </c>
       <c r="G16" s="17"/>
       <c r="I16" s="11"/>
       <c r="J16" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
       <c r="M16" s="17"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.3">
@@ -6016,26 +6273,26 @@
         <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
+        <v>120</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
       <c r="G17" s="17" t="s">
-        <v>414</v>
+        <v>375</v>
       </c>
       <c r="I17" s="11"/>
       <c r="J17" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="K17" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="L17" s="26"/>
+        <v>120</v>
+      </c>
+      <c r="K17" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="L17" s="30"/>
       <c r="M17" s="17" t="s">
-        <v>154</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.3">
@@ -6053,22 +6310,22 @@
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="18" t="s">
-        <v>415</v>
+        <v>376</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>536</v>
+        <v>496</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>416</v>
+        <v>377</v>
       </c>
       <c r="G19" s="11"/>
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
       <c r="K19" s="18" t="s">
-        <v>417</v>
+        <v>378</v>
       </c>
       <c r="L19" s="14" t="s">
-        <v>536</v>
+        <v>496</v>
       </c>
       <c r="M19" s="11"/>
     </row>
@@ -6098,104 +6355,104 @@
     </row>
     <row r="22" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="11"/>
-      <c r="C22" s="32" t="s">
-        <v>406</v>
-      </c>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
+      <c r="C22" s="36" t="s">
+        <v>368</v>
+      </c>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
       <c r="G22" s="11"/>
       <c r="I22" s="11"/>
-      <c r="J22" s="33" t="s">
-        <v>157</v>
-      </c>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="33"/>
+      <c r="J22" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="37"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="11"/>
       <c r="C23" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
+      <c r="D23" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
       <c r="G23" s="11"/>
       <c r="I23" s="11"/>
       <c r="J23" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="K23" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
+      <c r="K23" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="11"/>
       <c r="C24" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D24" s="26" t="s">
-        <v>159</v>
-      </c>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
+      <c r="D24" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
       <c r="G24" s="11"/>
       <c r="I24" s="11"/>
       <c r="J24" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="K24" s="26" t="s">
-        <v>426</v>
-      </c>
-      <c r="L24" s="26"/>
-      <c r="M24" s="26"/>
+      <c r="K24" s="30" t="s">
+        <v>387</v>
+      </c>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="11"/>
       <c r="C25" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="D25" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
+        <v>129</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
       <c r="G25" s="11"/>
       <c r="I25" s="11"/>
       <c r="J25" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="K25" s="26" t="s">
-        <v>407</v>
-      </c>
-      <c r="L25" s="26"/>
-      <c r="M25" s="26"/>
+        <v>129</v>
+      </c>
+      <c r="K25" s="30" t="s">
+        <v>369</v>
+      </c>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="D26" s="26" t="s">
-        <v>405</v>
-      </c>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
+        <v>134</v>
+      </c>
+      <c r="D26" s="30" t="s">
+        <v>367</v>
+      </c>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
       <c r="G26" s="11"/>
       <c r="I26" s="11"/>
       <c r="J26" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="K26" s="26" t="s">
-        <v>404</v>
-      </c>
-      <c r="L26" s="26"/>
-      <c r="M26" s="26"/>
+        <v>134</v>
+      </c>
+      <c r="K26" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="L26" s="30"/>
+      <c r="M26" s="30"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="11"/>
@@ -6283,13 +6540,13 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="33" t="s">
-        <v>429</v>
-      </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
+      <c r="B3" s="37" t="s">
+        <v>390</v>
+      </c>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="19">
@@ -6299,7 +6556,7 @@
         <v>58</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>199</v>
+        <v>165</v>
       </c>
       <c r="E4" s="19"/>
       <c r="F4" s="11"/>
@@ -6307,10 +6564,10 @@
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="19"/>
       <c r="C5" s="19" t="s">
-        <v>362</v>
+        <v>324</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>363</v>
+        <v>325</v>
       </c>
       <c r="E5" s="19"/>
       <c r="F5" s="11"/>
@@ -6320,10 +6577,10 @@
         <v>99</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>364</v>
+        <v>326</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>363</v>
+        <v>325</v>
       </c>
       <c r="E6" s="19"/>
       <c r="F6" s="11"/>
@@ -6339,22 +6596,22 @@
         <v>100</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>382</v>
+        <v>344</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>365</v>
+        <v>327</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>373</v>
+        <v>335</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>427</v>
+        <v>388</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="19"/>
       <c r="C9" s="19" t="s">
-        <v>428</v>
+        <v>389</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
@@ -6365,20 +6622,20 @@
         <v>110</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>386</v>
+        <v>348</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>372</v>
+        <v>334</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>374</v>
+        <v>336</v>
       </c>
       <c r="F10" s="11"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="19"/>
       <c r="C11" s="19" t="s">
-        <v>428</v>
+        <v>389</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
@@ -6389,20 +6646,20 @@
         <v>120</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>368</v>
+        <v>330</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>375</v>
+        <v>337</v>
       </c>
       <c r="F12" s="11"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="19"/>
       <c r="C13" s="19" t="s">
-        <v>428</v>
+        <v>389</v>
       </c>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
@@ -6413,20 +6670,20 @@
         <v>130</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>387</v>
+        <v>349</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>369</v>
+        <v>331</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>376</v>
+        <v>338</v>
       </c>
       <c r="F14" s="11"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" s="19"/>
       <c r="C15" s="19" t="s">
-        <v>428</v>
+        <v>389</v>
       </c>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
@@ -6437,20 +6694,20 @@
         <v>140</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>388</v>
+        <v>350</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>370</v>
+        <v>332</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>384</v>
+        <v>346</v>
       </c>
       <c r="F16" s="11"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="19"/>
       <c r="C17" s="19" t="s">
-        <v>428</v>
+        <v>389</v>
       </c>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
@@ -6461,20 +6718,20 @@
         <v>150</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>389</v>
+        <v>351</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>383</v>
+        <v>345</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>385</v>
+        <v>347</v>
       </c>
       <c r="F18" s="11"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="19"/>
       <c r="C19" s="19" t="s">
-        <v>428</v>
+        <v>389</v>
       </c>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
@@ -6485,20 +6742,20 @@
         <v>160</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>390</v>
+        <v>352</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>371</v>
+        <v>333</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>377</v>
+        <v>339</v>
       </c>
       <c r="F20" s="11"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="19"/>
       <c r="C21" s="19" t="s">
-        <v>428</v>
+        <v>389</v>
       </c>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
@@ -6509,20 +6766,20 @@
         <v>170</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>391</v>
+        <v>353</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>366</v>
+        <v>328</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>378</v>
+        <v>340</v>
       </c>
       <c r="F22" s="11"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="19"/>
       <c r="C23" s="19" t="s">
-        <v>428</v>
+        <v>389</v>
       </c>
       <c r="D23" s="19"/>
       <c r="E23" s="19"/>
@@ -6533,20 +6790,20 @@
         <v>180</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>392</v>
+        <v>354</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>379</v>
+        <v>341</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>380</v>
+        <v>342</v>
       </c>
       <c r="F24" s="11"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="19"/>
       <c r="C25" s="19" t="s">
-        <v>428</v>
+        <v>389</v>
       </c>
       <c r="D25" s="19"/>
       <c r="E25" s="19"/>
@@ -6557,20 +6814,20 @@
         <v>190</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>393</v>
+        <v>355</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>397</v>
+        <v>359</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>394</v>
+        <v>356</v>
       </c>
       <c r="F26" s="11"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" s="19"/>
       <c r="C27" s="19" t="s">
-        <v>428</v>
+        <v>389</v>
       </c>
       <c r="D27" s="19"/>
       <c r="E27" s="19"/>
@@ -6581,20 +6838,20 @@
         <v>200</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>398</v>
+        <v>360</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>402</v>
+        <v>364</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>395</v>
+        <v>357</v>
       </c>
       <c r="F28" s="11"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" s="19"/>
       <c r="C29" s="19" t="s">
-        <v>428</v>
+        <v>389</v>
       </c>
       <c r="D29" s="19"/>
       <c r="E29" s="19"/>
@@ -6605,20 +6862,20 @@
         <v>210</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>399</v>
+        <v>361</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>401</v>
+        <v>363</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>396</v>
+        <v>358</v>
       </c>
       <c r="F30" s="11"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" s="19"/>
       <c r="C31" s="19" t="s">
-        <v>428</v>
+        <v>389</v>
       </c>
       <c r="D31" s="19"/>
       <c r="E31" s="19"/>
@@ -6629,20 +6886,20 @@
         <v>220</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>400</v>
+        <v>362</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>367</v>
+        <v>329</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>381</v>
+        <v>343</v>
       </c>
       <c r="F32" s="11"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" s="11"/>
       <c r="C33" s="19" t="s">
-        <v>428</v>
+        <v>389</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
@@ -6661,8 +6918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M84"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E80" sqref="E80"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6674,12 +6931,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B2" s="33" t="s">
-        <v>408</v>
-      </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
+      <c r="B2" s="37" t="s">
+        <v>370</v>
+      </c>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="19"/>
@@ -6687,7 +6944,7 @@
         <v>58</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>361</v>
+        <v>323</v>
       </c>
       <c r="E3" s="19"/>
     </row>
@@ -6702,7 +6959,7 @@
         <v>44</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>438</v>
+        <v>399</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
@@ -6710,33 +6967,33 @@
         <v>2</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>178</v>
+        <v>145</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>430</v>
+        <v>391</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
+        <v>166</v>
+      </c>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6" s="19">
         <v>3</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>179</v>
+        <v>146</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>431</v>
+        <v>392</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
@@ -6747,46 +7004,46 @@
         <v>11</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>432</v>
+        <v>393</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>439</v>
+        <v>400</v>
       </c>
       <c r="H7" s="11"/>
-      <c r="I7" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
+      <c r="I7" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="19">
         <v>5</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>181</v>
+        <v>148</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>433</v>
+        <v>394</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>201</v>
+        <v>167</v>
       </c>
       <c r="H8" s="19">
         <v>1</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="J8" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
+        <v>125</v>
+      </c>
+      <c r="J8" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
       <c r="M8" s="17" t="s">
-        <v>414</v>
+        <v>375</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.3">
@@ -6794,27 +7051,27 @@
         <v>6</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>182</v>
+        <v>149</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>434</v>
+        <v>395</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>202</v>
+        <v>168</v>
       </c>
       <c r="H9" s="19">
         <v>2</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="J9" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
+        <v>124</v>
+      </c>
+      <c r="J9" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
       <c r="M9" s="17" t="s">
-        <v>414</v>
+        <v>375</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
@@ -6822,13 +7079,13 @@
         <v>7</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>277</v>
+        <v>243</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>435</v>
+        <v>396</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>203</v>
+        <v>169</v>
       </c>
       <c r="H10" s="19">
         <v>3</v>
@@ -6836,11 +7093,11 @@
       <c r="I10" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="J10" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
+      <c r="J10" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
       <c r="M10" s="17"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">
@@ -6848,13 +7105,13 @@
         <v>8</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>436</v>
+        <v>397</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>440</v>
+        <v>401</v>
       </c>
       <c r="H11" s="19">
         <v>4</v>
@@ -6862,11 +7119,11 @@
       <c r="I11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="J11" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
+      <c r="J11" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
       <c r="M11" s="17"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
@@ -6874,10 +7131,10 @@
         <v>9</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>185</v>
+        <v>152</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>437</v>
+        <v>398</v>
       </c>
       <c r="E12" s="19" t="s">
         <v>29</v>
@@ -6888,11 +7145,11 @@
       <c r="I12" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="J12" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
+      <c r="J12" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
       <c r="M12" s="17"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
@@ -6900,13 +7157,13 @@
         <v>10</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>188</v>
+        <v>154</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>441</v>
+        <v>402</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="H13" s="19">
         <v>6</v>
@@ -6914,11 +7171,11 @@
       <c r="I13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="J13" s="26" t="s">
-        <v>403</v>
-      </c>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
+      <c r="J13" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
       <c r="M13" s="17"/>
     </row>
     <row r="14" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -6926,27 +7183,27 @@
         <v>11</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>194</v>
+        <v>160</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>442</v>
+        <v>403</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>204</v>
+        <v>170</v>
       </c>
       <c r="H14" s="25">
         <v>7</v>
       </c>
       <c r="I14" s="22" t="s">
-        <v>486</v>
-      </c>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
+        <v>447</v>
+      </c>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
       <c r="L14" s="23" t="s">
-        <v>487</v>
+        <v>448</v>
       </c>
       <c r="M14" s="17" t="s">
-        <v>420</v>
+        <v>381</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
@@ -6954,24 +7211,24 @@
         <v>12</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>195</v>
+        <v>161</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>443</v>
+        <v>404</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>444</v>
+        <v>405</v>
       </c>
       <c r="H15" s="25">
         <v>8</v>
       </c>
       <c r="I15" s="22" t="s">
-        <v>486</v>
-      </c>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
+        <v>447</v>
+      </c>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
       <c r="L15" s="24" t="s">
-        <v>329</v>
+        <v>291</v>
       </c>
       <c r="M15" s="17"/>
     </row>
@@ -6980,27 +7237,27 @@
         <v>13</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>196</v>
+        <v>162</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>445</v>
+        <v>406</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>205</v>
+        <v>171</v>
       </c>
       <c r="H16" s="25">
         <v>9</v>
       </c>
       <c r="I16" s="22" t="s">
-        <v>486</v>
-      </c>
-      <c r="J16" s="34"/>
-      <c r="K16" s="26"/>
+        <v>447</v>
+      </c>
+      <c r="J16" s="38"/>
+      <c r="K16" s="30"/>
       <c r="L16" s="23" t="s">
-        <v>487</v>
+        <v>448</v>
       </c>
       <c r="M16" s="17" t="s">
-        <v>421</v>
+        <v>382</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.3">
@@ -7008,24 +7265,24 @@
         <v>14</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>197</v>
+        <v>163</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>446</v>
+        <v>407</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>206</v>
+        <v>172</v>
       </c>
       <c r="H17" s="25">
         <v>10</v>
       </c>
       <c r="I17" s="22" t="s">
-        <v>486</v>
-      </c>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
+        <v>447</v>
+      </c>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
       <c r="L17" s="24" t="s">
-        <v>329</v>
+        <v>291</v>
       </c>
       <c r="M17" s="17"/>
     </row>
@@ -7034,27 +7291,27 @@
         <v>15</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>198</v>
+        <v>164</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>447</v>
+        <v>408</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>207</v>
+        <v>173</v>
       </c>
       <c r="H18" s="25">
         <v>11</v>
       </c>
       <c r="I18" s="22" t="s">
-        <v>486</v>
-      </c>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
+        <v>447</v>
+      </c>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
       <c r="L18" s="23" t="s">
-        <v>487</v>
+        <v>448</v>
       </c>
       <c r="M18" s="17" t="s">
-        <v>422</v>
+        <v>383</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.3">
@@ -7062,24 +7319,24 @@
         <v>16</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>239</v>
+        <v>205</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>448</v>
+        <v>409</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>208</v>
+        <v>174</v>
       </c>
       <c r="H19" s="25">
         <v>12</v>
       </c>
       <c r="I19" s="22" t="s">
-        <v>486</v>
-      </c>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
+        <v>447</v>
+      </c>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
       <c r="L19" s="24" t="s">
-        <v>329</v>
+        <v>291</v>
       </c>
       <c r="M19" s="17"/>
     </row>
@@ -7088,27 +7345,27 @@
         <v>17</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>240</v>
+        <v>206</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>449</v>
+        <v>410</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>209</v>
+        <v>175</v>
       </c>
       <c r="H20" s="25">
         <v>13</v>
       </c>
       <c r="I20" s="22" t="s">
-        <v>486</v>
-      </c>
-      <c r="J20" s="34"/>
-      <c r="K20" s="26"/>
+        <v>447</v>
+      </c>
+      <c r="J20" s="38"/>
+      <c r="K20" s="30"/>
       <c r="L20" s="23" t="s">
-        <v>487</v>
+        <v>448</v>
       </c>
       <c r="M20" s="17" t="s">
-        <v>423</v>
+        <v>384</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.3">
@@ -7116,24 +7373,24 @@
         <v>18</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>241</v>
+        <v>207</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>450</v>
+        <v>411</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>210</v>
+        <v>176</v>
       </c>
       <c r="H21" s="25">
         <v>14</v>
       </c>
       <c r="I21" s="22" t="s">
-        <v>486</v>
-      </c>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
+        <v>447</v>
+      </c>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
       <c r="L21" s="24" t="s">
-        <v>329</v>
+        <v>291</v>
       </c>
       <c r="M21" s="17"/>
     </row>
@@ -7142,27 +7399,27 @@
         <v>19</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>242</v>
+        <v>208</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>451</v>
+        <v>412</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>211</v>
+        <v>177</v>
       </c>
       <c r="H22" s="19">
         <v>15</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="J22" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
+        <v>120</v>
+      </c>
+      <c r="J22" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
       <c r="M22" s="17" t="s">
-        <v>414</v>
+        <v>375</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.3">
@@ -7170,13 +7427,13 @@
         <v>20</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>243</v>
+        <v>209</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>452</v>
+        <v>413</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>212</v>
+        <v>178</v>
       </c>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
@@ -7190,13 +7447,13 @@
         <v>21</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>244</v>
+        <v>210</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>453</v>
+        <v>414</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>213</v>
+        <v>179</v>
       </c>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
@@ -7210,13 +7467,13 @@
         <v>22</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>245</v>
+        <v>211</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>454</v>
+        <v>415</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>214</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.3">
@@ -7224,13 +7481,13 @@
         <v>23</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>246</v>
+        <v>212</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>455</v>
+        <v>416</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>215</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.3">
@@ -7238,13 +7495,13 @@
         <v>24</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>247</v>
+        <v>213</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>456</v>
+        <v>417</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>216</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.3">
@@ -7252,13 +7509,13 @@
         <v>25</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>248</v>
+        <v>214</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>457</v>
+        <v>418</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>217</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.3">
@@ -7266,13 +7523,13 @@
         <v>26</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>249</v>
+        <v>215</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>458</v>
+        <v>419</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>218</v>
+        <v>184</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.3">
@@ -7280,13 +7537,13 @@
         <v>27</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>250</v>
+        <v>216</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>459</v>
+        <v>420</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>460</v>
+        <v>421</v>
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.3">
@@ -7294,13 +7551,13 @@
         <v>28</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>251</v>
+        <v>217</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>462</v>
+        <v>423</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>461</v>
+        <v>422</v>
       </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.3">
@@ -7308,13 +7565,13 @@
         <v>29</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>252</v>
+        <v>218</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>464</v>
+        <v>425</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>463</v>
+        <v>424</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
@@ -7322,13 +7579,13 @@
         <v>30</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>253</v>
+        <v>219</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>465</v>
+        <v>426</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>219</v>
+        <v>185</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.3">
@@ -7336,13 +7593,13 @@
         <v>31</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>254</v>
+        <v>220</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>466</v>
+        <v>427</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>220</v>
+        <v>186</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
@@ -7350,13 +7607,13 @@
         <v>32</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>467</v>
+        <v>428</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>221</v>
+        <v>187</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.3">
@@ -7364,13 +7621,13 @@
         <v>33</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>256</v>
+        <v>222</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>468</v>
+        <v>429</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>222</v>
+        <v>188</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.3">
@@ -7378,13 +7635,13 @@
         <v>34</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>257</v>
+        <v>223</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>469</v>
+        <v>430</v>
       </c>
       <c r="E37" s="19" t="s">
-        <v>223</v>
+        <v>189</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.3">
@@ -7392,13 +7649,13 @@
         <v>35</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>258</v>
+        <v>224</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>470</v>
+        <v>431</v>
       </c>
       <c r="E38" s="19" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.3">
@@ -7406,13 +7663,13 @@
         <v>36</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>259</v>
+        <v>225</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>471</v>
+        <v>432</v>
       </c>
       <c r="E39" s="19" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.3">
@@ -7420,13 +7677,13 @@
         <v>37</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>260</v>
+        <v>226</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>472</v>
+        <v>433</v>
       </c>
       <c r="E40" s="19" t="s">
-        <v>226</v>
+        <v>192</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.3">
@@ -7434,13 +7691,13 @@
         <v>38</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>261</v>
+        <v>227</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>473</v>
+        <v>434</v>
       </c>
       <c r="E41" s="19" t="s">
-        <v>227</v>
+        <v>193</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.3">
@@ -7448,13 +7705,13 @@
         <v>39</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>262</v>
+        <v>228</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>474</v>
+        <v>435</v>
       </c>
       <c r="E42" s="19" t="s">
-        <v>228</v>
+        <v>194</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.3">
@@ -7462,13 +7719,13 @@
         <v>40</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>263</v>
+        <v>229</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>475</v>
+        <v>436</v>
       </c>
       <c r="E43" s="19" t="s">
-        <v>229</v>
+        <v>195</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.3">
@@ -7476,13 +7733,13 @@
         <v>41</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>264</v>
+        <v>230</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>476</v>
+        <v>437</v>
       </c>
       <c r="E44" s="19" t="s">
-        <v>230</v>
+        <v>196</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.3">
@@ -7490,13 +7747,13 @@
         <v>42</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>265</v>
+        <v>231</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>477</v>
+        <v>438</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>231</v>
+        <v>197</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.3">
@@ -7504,13 +7761,13 @@
         <v>43</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>266</v>
+        <v>232</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>478</v>
+        <v>439</v>
       </c>
       <c r="E46" s="19" t="s">
-        <v>232</v>
+        <v>198</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.3">
@@ -7518,13 +7775,13 @@
         <v>44</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>267</v>
+        <v>233</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>479</v>
+        <v>440</v>
       </c>
       <c r="E47" s="19" t="s">
-        <v>233</v>
+        <v>199</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.3">
@@ -7532,13 +7789,13 @@
         <v>45</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>268</v>
+        <v>234</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>480</v>
+        <v>441</v>
       </c>
       <c r="E48" s="19" t="s">
-        <v>234</v>
+        <v>200</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.3">
@@ -7546,13 +7803,13 @@
         <v>46</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>269</v>
+        <v>235</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>481</v>
+        <v>442</v>
       </c>
       <c r="E49" s="19" t="s">
-        <v>235</v>
+        <v>201</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.3">
@@ -7560,13 +7817,13 @@
         <v>47</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>270</v>
+        <v>236</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>482</v>
+        <v>443</v>
       </c>
       <c r="E50" s="19" t="s">
-        <v>236</v>
+        <v>202</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.3">
@@ -7574,37 +7831,37 @@
         <v>48</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>483</v>
+        <v>444</v>
       </c>
       <c r="E51" s="19" t="s">
-        <v>237</v>
+        <v>203</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B52" s="19"/>
       <c r="C52" s="19" t="s">
-        <v>273</v>
+        <v>239</v>
       </c>
       <c r="E52" s="19" t="s">
-        <v>273</v>
+        <v>239</v>
       </c>
       <c r="F52" s="17" t="s">
-        <v>485</v>
+        <v>446</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B53" s="19"/>
       <c r="C53" s="19" t="s">
-        <v>274</v>
+        <v>240</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>484</v>
+        <v>445</v>
       </c>
       <c r="E53" s="19" t="s">
-        <v>238</v>
+        <v>204</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.3">
@@ -7620,13 +7877,13 @@
     <row r="56" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B56" s="19"/>
       <c r="C56" s="19" t="s">
-        <v>362</v>
+        <v>324</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>363</v>
+        <v>325</v>
       </c>
       <c r="E56" s="19" t="s">
-        <v>272</v>
+        <v>238</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.3">
@@ -7667,11 +7924,11 @@
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B63" s="11"/>
-      <c r="C63" s="33" t="s">
-        <v>166</v>
-      </c>
-      <c r="D63" s="33"/>
-      <c r="E63" s="33"/>
+      <c r="C63" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="D63" s="37"/>
+      <c r="E63" s="37"/>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B64" s="11"/>
@@ -7687,7 +7944,7 @@
         <v>58</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>199</v>
+        <v>165</v>
       </c>
       <c r="E65" s="11"/>
     </row>
@@ -7699,7 +7956,7 @@
         <v>2</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>409</v>
+        <v>371</v>
       </c>
       <c r="E66" s="11"/>
     </row>
@@ -7708,10 +7965,10 @@
         <v>2</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>178</v>
+        <v>145</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>187</v>
+        <v>153</v>
       </c>
       <c r="E67" s="11"/>
     </row>
@@ -7723,7 +7980,7 @@
         <v>10</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>189</v>
+        <v>155</v>
       </c>
       <c r="E68" s="11"/>
     </row>
@@ -7732,10 +7989,10 @@
         <v>4</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>180</v>
+        <v>147</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>192</v>
+        <v>158</v>
       </c>
       <c r="E69" s="11"/>
     </row>
@@ -7744,10 +8001,10 @@
         <v>5</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>181</v>
+        <v>148</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>190</v>
+        <v>156</v>
       </c>
       <c r="E70" s="11"/>
     </row>
@@ -7756,10 +8013,10 @@
         <v>6</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>182</v>
+        <v>149</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="E71" s="11"/>
     </row>
@@ -7768,10 +8025,10 @@
         <v>7</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>183</v>
+        <v>150</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>193</v>
+        <v>159</v>
       </c>
       <c r="E72" s="11"/>
     </row>
@@ -7780,10 +8037,10 @@
         <v>8</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="E73" s="11"/>
     </row>
@@ -7792,10 +8049,10 @@
         <v>9</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>185</v>
+        <v>152</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>171</v>
+        <v>138</v>
       </c>
       <c r="E74" s="11"/>
     </row>
@@ -7804,10 +8061,10 @@
         <v>10</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>188</v>
+        <v>154</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>172</v>
+        <v>139</v>
       </c>
       <c r="E75" s="11"/>
     </row>
@@ -7816,10 +8073,10 @@
         <v>11</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>194</v>
+        <v>160</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>173</v>
+        <v>140</v>
       </c>
       <c r="E76" s="11"/>
     </row>
@@ -7828,10 +8085,10 @@
         <v>12</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>195</v>
+        <v>161</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c r="E77" s="11"/>
     </row>
@@ -7840,10 +8097,10 @@
         <v>13</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>196</v>
+        <v>162</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>175</v>
+        <v>142</v>
       </c>
       <c r="E78" s="11"/>
     </row>
@@ -7852,10 +8109,10 @@
         <v>14</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>197</v>
+        <v>163</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>176</v>
+        <v>143</v>
       </c>
       <c r="E79" s="11"/>
     </row>
@@ -7864,10 +8121,10 @@
         <v>15</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>198</v>
+        <v>164</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>177</v>
+        <v>144</v>
       </c>
       <c r="E80" s="11"/>
     </row>
@@ -7897,6 +8154,8 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="J18:J19"/>
     <mergeCell ref="C63:E63"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="K18:K21"/>
@@ -7912,8 +8171,6 @@
     <mergeCell ref="J13:L13"/>
     <mergeCell ref="J14:J15"/>
     <mergeCell ref="K14:K17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="J18:J19"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7922,10 +8179,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H71"/>
+  <dimension ref="B2:H97"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7940,21 +8197,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B2" s="26" t="s">
-        <v>490</v>
-      </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
+      <c r="B2" s="30" t="s">
+        <v>451</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
-        <v>327</v>
+        <v>289</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>328</v>
+        <v>290</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>329</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
@@ -7962,10 +8219,10 @@
         <v>0</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>317</v>
+        <v>279</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>318</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
@@ -7973,10 +8230,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>319</v>
+        <v>281</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>321</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
@@ -7984,10 +8241,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>322</v>
+        <v>284</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>320</v>
+        <v>282</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
@@ -7995,10 +8252,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>323</v>
+        <v>285</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>321</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
@@ -8006,10 +8263,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>324</v>
+        <v>286</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>326</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
@@ -8017,10 +8274,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>330</v>
+        <v>292</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>325</v>
+        <v>287</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
@@ -8028,10 +8285,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>332</v>
+        <v>294</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>331</v>
+        <v>293</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
@@ -8039,13 +8296,13 @@
         <v>7</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>334</v>
+        <v>296</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>333</v>
+        <v>295</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>511</v>
+        <v>471</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
@@ -8053,13 +8310,13 @@
         <v>8</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>335</v>
+        <v>297</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>333</v>
+        <v>295</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>513</v>
+        <v>473</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
@@ -8067,13 +8324,13 @@
         <v>9</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>336</v>
+        <v>298</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>333</v>
+        <v>295</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>514</v>
+        <v>474</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
@@ -8081,13 +8338,13 @@
         <v>10</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>337</v>
+        <v>299</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>333</v>
+        <v>295</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>515</v>
+        <v>475</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
@@ -8095,13 +8352,13 @@
         <v>11</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>338</v>
+        <v>300</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>333</v>
+        <v>295</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>512</v>
+        <v>472</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
@@ -8109,13 +8366,13 @@
         <v>12</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>339</v>
+        <v>301</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>333</v>
+        <v>295</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>516</v>
+        <v>476</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
@@ -8123,13 +8380,13 @@
         <v>13</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>340</v>
+        <v>302</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>333</v>
+        <v>295</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>517</v>
+        <v>477</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
@@ -8137,13 +8394,13 @@
         <v>14</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>341</v>
+        <v>303</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>333</v>
+        <v>295</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>518</v>
+        <v>478</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
@@ -8151,10 +8408,10 @@
         <v>15</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>342</v>
+        <v>304</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>333</v>
+        <v>295</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
@@ -8162,10 +8419,10 @@
         <v>16</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>343</v>
+        <v>305</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>333</v>
+        <v>295</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
@@ -8173,10 +8430,10 @@
         <v>17</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>344</v>
+        <v>306</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>346</v>
+        <v>308</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
@@ -8184,31 +8441,31 @@
         <v>18</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>347</v>
+        <v>309</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>348</v>
+        <v>310</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="26" t="s">
-        <v>489</v>
-      </c>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
+      <c r="B26" s="30" t="s">
+        <v>450</v>
+      </c>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
-        <v>327</v>
+        <v>289</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>328</v>
+        <v>290</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>329</v>
+        <v>291</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
@@ -8216,10 +8473,10 @@
         <v>0</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>317</v>
+        <v>279</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>318</v>
+        <v>280</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.3">
@@ -8227,10 +8484,10 @@
         <v>1</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>319</v>
+        <v>281</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>321</v>
+        <v>283</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.3">
@@ -8238,10 +8495,10 @@
         <v>2</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>322</v>
+        <v>284</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>320</v>
+        <v>282</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.3">
@@ -8249,10 +8506,10 @@
         <v>3</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>323</v>
+        <v>285</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>321</v>
+        <v>283</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.3">
@@ -8260,13 +8517,13 @@
         <v>4</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>353</v>
+        <v>315</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>333</v>
+        <v>295</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>519</v>
+        <v>479</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
@@ -8274,13 +8531,13 @@
         <v>5</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>349</v>
+        <v>311</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>333</v>
+        <v>295</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>520</v>
+        <v>480</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.3">
@@ -8288,13 +8545,13 @@
         <v>6</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>350</v>
+        <v>312</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>333</v>
+        <v>295</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>521</v>
+        <v>481</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
@@ -8302,13 +8559,13 @@
         <v>7</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>351</v>
+        <v>313</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>333</v>
+        <v>295</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>522</v>
+        <v>482</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.3">
@@ -8316,10 +8573,10 @@
         <v>8</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>352</v>
+        <v>314</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>346</v>
+        <v>308</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.3">
@@ -8327,10 +8584,10 @@
         <v>9</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>345</v>
+        <v>307</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.3">
@@ -8338,10 +8595,10 @@
         <v>10</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>332</v>
+        <v>294</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>331</v>
+        <v>293</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.3">
@@ -8349,10 +8606,10 @@
         <v>11</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>342</v>
+        <v>304</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>333</v>
+        <v>295</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.3">
@@ -8360,10 +8617,10 @@
         <v>12</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>343</v>
+        <v>305</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>333</v>
+        <v>295</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.3">
@@ -8371,10 +8628,10 @@
         <v>13</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>344</v>
+        <v>306</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>333</v>
+        <v>295</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.3">
@@ -8382,10 +8639,10 @@
         <v>14</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>347</v>
+        <v>309</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>333</v>
+        <v>295</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.3">
@@ -8393,10 +8650,10 @@
         <v>15</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>355</v>
+        <v>317</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>346</v>
+        <v>308</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.3">
@@ -8404,10 +8661,10 @@
         <v>16</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>356</v>
+        <v>318</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>346</v>
+        <v>308</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.3">
@@ -8415,28 +8672,28 @@
         <v>17</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>357</v>
+        <v>319</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>348</v>
+        <v>310</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B49" s="26" t="s">
-        <v>504</v>
-      </c>
-      <c r="C49" s="26"/>
-      <c r="D49" s="26"/>
+      <c r="B49" s="30" t="s">
+        <v>464</v>
+      </c>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B50" s="16" t="s">
-        <v>327</v>
+        <v>289</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>328</v>
+        <v>290</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>329</v>
+        <v>291</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.3">
@@ -8444,10 +8701,10 @@
         <v>0</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>317</v>
+        <v>279</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>318</v>
+        <v>280</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.3">
@@ -8455,10 +8712,10 @@
         <v>1</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>319</v>
+        <v>281</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>321</v>
+        <v>283</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.3">
@@ -8466,10 +8723,10 @@
         <v>2</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>322</v>
+        <v>284</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>320</v>
+        <v>282</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.3">
@@ -8477,10 +8734,10 @@
         <v>3</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>323</v>
+        <v>285</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>321</v>
+        <v>283</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.3">
@@ -8488,13 +8745,13 @@
         <v>4</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>505</v>
+        <v>465</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>333</v>
+        <v>295</v>
       </c>
       <c r="E55" s="17" t="s">
-        <v>523</v>
+        <v>483</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.3">
@@ -8502,13 +8759,13 @@
         <v>5</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>506</v>
+        <v>466</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>333</v>
+        <v>295</v>
       </c>
       <c r="E56" s="17" t="s">
-        <v>524</v>
+        <v>484</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.3">
@@ -8516,13 +8773,13 @@
         <v>6</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>507</v>
+        <v>467</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>333</v>
+        <v>295</v>
       </c>
       <c r="E57" s="17" t="s">
-        <v>525</v>
+        <v>485</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.3">
@@ -8530,13 +8787,13 @@
         <v>7</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>508</v>
+        <v>468</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>333</v>
+        <v>295</v>
       </c>
       <c r="E58" s="17" t="s">
-        <v>526</v>
+        <v>486</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.3">
@@ -8544,10 +8801,10 @@
         <v>8</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>509</v>
+        <v>469</v>
       </c>
       <c r="D59" s="15" t="s">
-        <v>333</v>
+        <v>295</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.3">
@@ -8555,10 +8812,10 @@
         <v>9</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>510</v>
+        <v>470</v>
       </c>
       <c r="D60" s="15" t="s">
-        <v>333</v>
+        <v>295</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.3">
@@ -8566,13 +8823,13 @@
         <v>10</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>353</v>
+        <v>315</v>
       </c>
       <c r="D61" s="15" t="s">
-        <v>333</v>
+        <v>295</v>
       </c>
       <c r="E61" s="17" t="s">
-        <v>527</v>
+        <v>487</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.3">
@@ -8580,13 +8837,13 @@
         <v>11</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>349</v>
+        <v>311</v>
       </c>
       <c r="D62" s="15" t="s">
-        <v>333</v>
+        <v>295</v>
       </c>
       <c r="E62" s="17" t="s">
-        <v>528</v>
+        <v>488</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.3">
@@ -8594,13 +8851,13 @@
         <v>12</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>350</v>
+        <v>312</v>
       </c>
       <c r="D63" s="15" t="s">
-        <v>333</v>
+        <v>295</v>
       </c>
       <c r="E63" s="17" t="s">
-        <v>529</v>
+        <v>489</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.3">
@@ -8608,13 +8865,13 @@
         <v>13</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>531</v>
+        <v>491</v>
       </c>
       <c r="D64" s="15" t="s">
-        <v>333</v>
+        <v>295</v>
       </c>
       <c r="E64" s="17" t="s">
-        <v>530</v>
+        <v>490</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.3">
@@ -8622,10 +8879,10 @@
         <v>14</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>352</v>
+        <v>314</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>346</v>
+        <v>308</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.3">
@@ -8633,10 +8890,10 @@
         <v>15</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>346</v>
+        <v>308</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.3">
@@ -8644,10 +8901,10 @@
         <v>16</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>332</v>
+        <v>294</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>331</v>
+        <v>293</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.3">
@@ -8655,10 +8912,10 @@
         <v>17</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>324</v>
+        <v>286</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>535</v>
+        <v>495</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.3">
@@ -8666,10 +8923,10 @@
         <v>18</v>
       </c>
       <c r="C69" t="s">
-        <v>532</v>
+        <v>492</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>333</v>
+        <v>295</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.3">
@@ -8677,10 +8934,10 @@
         <v>19</v>
       </c>
       <c r="C70" t="s">
-        <v>533</v>
+        <v>493</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>333</v>
+        <v>295</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.3">
@@ -8688,17 +8945,207 @@
         <v>20</v>
       </c>
       <c r="C71" t="s">
-        <v>534</v>
+        <v>494</v>
       </c>
       <c r="D71" s="15" t="s">
-        <v>348</v>
-      </c>
+        <v>310</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B75" s="30" t="s">
+        <v>582</v>
+      </c>
+      <c r="C75" s="30"/>
+      <c r="D75" s="30"/>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B76" s="29" t="s">
+        <v>289</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B77" s="27">
+        <v>0</v>
+      </c>
+      <c r="C77" s="28" t="s">
+        <v>279</v>
+      </c>
+      <c r="D77" s="28" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B78" s="27">
+        <v>1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>583</v>
+      </c>
+      <c r="D78" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B79" s="27">
+        <v>2</v>
+      </c>
+      <c r="C79" s="28" t="s">
+        <v>281</v>
+      </c>
+      <c r="D79" s="28" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B80" s="27">
+        <v>3</v>
+      </c>
+      <c r="C80" s="28" t="s">
+        <v>284</v>
+      </c>
+      <c r="D80" s="28" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B81" s="27">
+        <v>4</v>
+      </c>
+      <c r="C81" s="28" t="s">
+        <v>285</v>
+      </c>
+      <c r="D81" s="28" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B82" s="27">
+        <v>5</v>
+      </c>
+      <c r="C82" s="28" t="s">
+        <v>294</v>
+      </c>
+      <c r="D82" s="28" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B83" s="27">
+        <v>6</v>
+      </c>
+      <c r="C83" s="28" t="s">
+        <v>365</v>
+      </c>
+      <c r="D83" s="28" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B84" s="27">
+        <v>7</v>
+      </c>
+      <c r="C84" s="28" t="s">
+        <v>304</v>
+      </c>
+      <c r="D84" s="28" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B85" s="27">
+        <v>8</v>
+      </c>
+      <c r="C85" s="28" t="s">
+        <v>305</v>
+      </c>
+      <c r="D85" s="28" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B86" s="27">
+        <v>9</v>
+      </c>
+      <c r="C86" s="28" t="s">
+        <v>587</v>
+      </c>
+      <c r="D86" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B87" s="27">
+        <v>10</v>
+      </c>
+      <c r="C87" s="28" t="s">
+        <v>588</v>
+      </c>
+      <c r="D87" s="28" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B88" s="27"/>
+      <c r="C88" s="28"/>
+      <c r="D88" s="28"/>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B89" s="27"/>
+      <c r="C89" s="28"/>
+      <c r="D89" s="28"/>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B90" s="27"/>
+      <c r="C90" s="28"/>
+      <c r="D90" s="28"/>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B91" s="27"/>
+      <c r="C91" s="28"/>
+      <c r="D91" s="28"/>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B92" s="27"/>
+      <c r="C92" s="28"/>
+      <c r="D92" s="28"/>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B93" s="27"/>
+      <c r="C93" s="28"/>
+      <c r="D93" s="28"/>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B94" s="27"/>
+      <c r="C94" s="28"/>
+      <c r="D94" s="28"/>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B95" s="27"/>
+      <c r="C95" s="28"/>
+      <c r="D95" s="28"/>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B96" s="27"/>
+      <c r="C96" s="28"/>
+      <c r="D96" s="28"/>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B97" s="27"/>
+      <c r="C97" s="28"/>
+      <c r="D97" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B75:D75"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HomePy_protocol_v0.5.xlsx
+++ b/HomePy_protocol_v0.5.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="593">
   <si>
     <t>온습도 센서</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -2277,6 +2277,14 @@
   </si>
   <si>
     <t>INT,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>interval</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -2459,7 +2467,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2553,6 +2561,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2569,12 +2583,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyAlignment="1">
@@ -2931,15 +2945,15 @@
       <c r="Y4"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="33" t="s">
         <v>452</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
       <c r="T5"/>
       <c r="Y5"/>
     </row>
@@ -3003,7 +3017,7 @@
       <c r="Y7"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="35" t="s">
         <v>66</v>
       </c>
       <c r="C8" t="s">
@@ -3032,7 +3046,7 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
-      <c r="B9" s="32"/>
+      <c r="B9" s="34"/>
       <c r="C9" t="s">
         <v>5</v>
       </c>
@@ -3053,7 +3067,7 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
-      <c r="B10" s="32"/>
+      <c r="B10" s="34"/>
       <c r="C10" t="s">
         <v>10</v>
       </c>
@@ -3074,7 +3088,7 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
-      <c r="B11" s="32"/>
+      <c r="B11" s="34"/>
       <c r="C11" s="4" t="s">
         <v>11</v>
       </c>
@@ -3092,7 +3106,7 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
-      <c r="B12" s="32"/>
+      <c r="B12" s="34"/>
       <c r="C12" s="4" t="s">
         <v>241</v>
       </c>
@@ -3110,7 +3124,7 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
-      <c r="B13" s="32"/>
+      <c r="B13" s="34"/>
       <c r="C13" s="4" t="s">
         <v>242</v>
       </c>
@@ -3128,7 +3142,7 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
-      <c r="B14" s="32"/>
+      <c r="B14" s="34"/>
       <c r="C14" s="4" t="s">
         <v>243</v>
       </c>
@@ -3146,7 +3160,7 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
-      <c r="B15" s="32"/>
+      <c r="B15" s="34"/>
       <c r="C15" s="4" t="s">
         <v>244</v>
       </c>
@@ -3164,7 +3178,7 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
-      <c r="B16" s="32"/>
+      <c r="B16" s="34"/>
       <c r="C16" s="4" t="s">
         <v>245</v>
       </c>
@@ -3182,7 +3196,7 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
-      <c r="B17" s="32"/>
+      <c r="B17" s="34"/>
       <c r="C17" s="4" t="s">
         <v>246</v>
       </c>
@@ -3200,7 +3214,7 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
-      <c r="B18" s="32"/>
+      <c r="B18" s="34"/>
       <c r="C18" s="4" t="s">
         <v>247</v>
       </c>
@@ -3218,7 +3232,7 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
-      <c r="B19" s="32"/>
+      <c r="B19" s="34"/>
       <c r="C19" s="4" t="s">
         <v>248</v>
       </c>
@@ -3236,7 +3250,7 @@
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
-      <c r="B20" s="32"/>
+      <c r="B20" s="34"/>
       <c r="C20" s="4" t="s">
         <v>249</v>
       </c>
@@ -3254,7 +3268,7 @@
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
-      <c r="B21" s="32"/>
+      <c r="B21" s="34"/>
       <c r="C21" s="4" t="s">
         <v>250</v>
       </c>
@@ -3272,7 +3286,7 @@
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
-      <c r="B22" s="32"/>
+      <c r="B22" s="34"/>
       <c r="C22" s="4" t="s">
         <v>251</v>
       </c>
@@ -3290,7 +3304,7 @@
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
-      <c r="B23" s="32"/>
+      <c r="B23" s="34"/>
       <c r="C23" s="4" t="s">
         <v>252</v>
       </c>
@@ -3308,7 +3322,7 @@
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
-      <c r="B24" s="32"/>
+      <c r="B24" s="34"/>
       <c r="C24" s="4" t="s">
         <v>59</v>
       </c>
@@ -3326,7 +3340,7 @@
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
-      <c r="B25" s="32"/>
+      <c r="B25" s="34"/>
       <c r="C25" s="4" t="s">
         <v>253</v>
       </c>
@@ -3344,7 +3358,7 @@
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
-      <c r="B26" s="32"/>
+      <c r="B26" s="34"/>
       <c r="C26" s="4" t="s">
         <v>254</v>
       </c>
@@ -3362,7 +3376,7 @@
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
-      <c r="B27" s="32"/>
+      <c r="B27" s="34"/>
       <c r="C27" s="4" t="s">
         <v>255</v>
       </c>
@@ -3380,7 +3394,7 @@
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
-      <c r="B28" s="32"/>
+      <c r="B28" s="34"/>
       <c r="C28" s="4" t="s">
         <v>256</v>
       </c>
@@ -3398,7 +3412,7 @@
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
-      <c r="B29" s="32"/>
+      <c r="B29" s="34"/>
       <c r="C29" s="4" t="s">
         <v>257</v>
       </c>
@@ -3416,7 +3430,7 @@
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
-      <c r="B30" s="32"/>
+      <c r="B30" s="34"/>
       <c r="C30" s="4" t="s">
         <v>258</v>
       </c>
@@ -3434,7 +3448,7 @@
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
-      <c r="B31" s="32"/>
+      <c r="B31" s="34"/>
       <c r="C31" s="4" t="s">
         <v>259</v>
       </c>
@@ -3452,7 +3466,7 @@
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
-      <c r="B32" s="32"/>
+      <c r="B32" s="34"/>
       <c r="C32" s="4" t="s">
         <v>260</v>
       </c>
@@ -3470,7 +3484,7 @@
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
-      <c r="B33" s="32"/>
+      <c r="B33" s="34"/>
       <c r="C33" s="4" t="s">
         <v>261</v>
       </c>
@@ -3488,7 +3502,7 @@
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
-      <c r="B34" s="32"/>
+      <c r="B34" s="34"/>
       <c r="C34" s="4" t="s">
         <v>262</v>
       </c>
@@ -3506,7 +3520,7 @@
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
-      <c r="B35" s="32"/>
+      <c r="B35" s="34"/>
       <c r="C35" s="4" t="s">
         <v>263</v>
       </c>
@@ -3524,7 +3538,7 @@
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
-      <c r="B36" s="32"/>
+      <c r="B36" s="34"/>
       <c r="C36" s="4" t="s">
         <v>264</v>
       </c>
@@ -3542,7 +3556,7 @@
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
-      <c r="B37" s="32"/>
+      <c r="B37" s="34"/>
       <c r="C37" s="4" t="s">
         <v>265</v>
       </c>
@@ -3559,7 +3573,7 @@
       <c r="Y37"/>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B38" s="32"/>
+      <c r="B38" s="34"/>
       <c r="T38"/>
       <c r="Y38"/>
     </row>
@@ -3575,13 +3589,13 @@
       <c r="B41" t="s">
         <v>5</v>
       </c>
-      <c r="C41" s="32" t="s">
+      <c r="C41" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="32"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
       <c r="T41"/>
       <c r="Y41"/>
     </row>
@@ -3594,7 +3608,7 @@
       <c r="Y43"/>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B44" s="33" t="s">
+      <c r="B44" s="35" t="s">
         <v>67</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -3613,7 +3627,7 @@
       <c r="Y44"/>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B45" s="32"/>
+      <c r="B45" s="34"/>
       <c r="C45" s="4" t="s">
         <v>5</v>
       </c>
@@ -3630,7 +3644,7 @@
       <c r="Y45"/>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B46" s="32"/>
+      <c r="B46" s="34"/>
       <c r="C46" s="4" t="s">
         <v>10</v>
       </c>
@@ -3647,7 +3661,7 @@
       <c r="Y46"/>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B47" s="32"/>
+      <c r="B47" s="34"/>
       <c r="C47" s="4" t="s">
         <v>11</v>
       </c>
@@ -3664,7 +3678,7 @@
       <c r="Y47"/>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B48" s="32"/>
+      <c r="B48" s="34"/>
       <c r="C48" s="4" t="s">
         <v>241</v>
       </c>
@@ -3681,7 +3695,7 @@
       <c r="Y48"/>
     </row>
     <row r="49" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B49" s="32"/>
+      <c r="B49" s="34"/>
       <c r="C49" s="4" t="s">
         <v>242</v>
       </c>
@@ -3698,7 +3712,7 @@
       <c r="Y49"/>
     </row>
     <row r="50" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B50" s="32"/>
+      <c r="B50" s="34"/>
       <c r="C50" s="11" t="s">
         <v>372</v>
       </c>
@@ -3726,13 +3740,13 @@
       <c r="B53" t="s">
         <v>11</v>
       </c>
-      <c r="C53" s="32" t="s">
+      <c r="C53" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="D53" s="32"/>
-      <c r="E53" s="32"/>
-      <c r="F53" s="32"/>
-      <c r="G53" s="32"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="34"/>
       <c r="T53"/>
       <c r="Y53"/>
     </row>
@@ -3753,7 +3767,7 @@
       <c r="Y57"/>
     </row>
     <row r="58" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B58" s="33" t="s">
+      <c r="B58" s="35" t="s">
         <v>68</v>
       </c>
       <c r="C58" s="4" t="s">
@@ -3772,7 +3786,7 @@
       <c r="Y58"/>
     </row>
     <row r="59" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B59" s="32"/>
+      <c r="B59" s="34"/>
       <c r="C59" s="4" t="s">
         <v>5</v>
       </c>
@@ -3789,7 +3803,7 @@
       <c r="Y59"/>
     </row>
     <row r="60" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B60" s="32"/>
+      <c r="B60" s="34"/>
       <c r="C60" s="4" t="s">
         <v>10</v>
       </c>
@@ -3806,7 +3820,7 @@
       <c r="Y60"/>
     </row>
     <row r="61" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B61" s="32"/>
+      <c r="B61" s="34"/>
       <c r="C61" s="4" t="s">
         <v>11</v>
       </c>
@@ -3823,7 +3837,7 @@
       <c r="Y61"/>
     </row>
     <row r="62" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B62" s="32"/>
+      <c r="B62" s="34"/>
       <c r="C62" s="4" t="s">
         <v>241</v>
       </c>
@@ -3840,7 +3854,7 @@
       <c r="Y62"/>
     </row>
     <row r="63" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B63" s="32"/>
+      <c r="B63" s="34"/>
       <c r="C63" s="4" t="s">
         <v>242</v>
       </c>
@@ -3857,7 +3871,7 @@
       <c r="Y63"/>
     </row>
     <row r="64" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B64" s="32"/>
+      <c r="B64" s="34"/>
       <c r="C64" s="4" t="s">
         <v>243</v>
       </c>
@@ -3874,7 +3888,7 @@
       <c r="Y64"/>
     </row>
     <row r="65" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B65" s="32"/>
+      <c r="B65" s="34"/>
       <c r="C65" s="4" t="s">
         <v>244</v>
       </c>
@@ -3891,7 +3905,7 @@
       <c r="Y65"/>
     </row>
     <row r="66" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B66" s="32"/>
+      <c r="B66" s="34"/>
       <c r="C66" s="4" t="s">
         <v>245</v>
       </c>
@@ -3908,7 +3922,7 @@
       <c r="Y66"/>
     </row>
     <row r="67" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B67" s="32"/>
+      <c r="B67" s="34"/>
       <c r="C67" s="4" t="s">
         <v>246</v>
       </c>
@@ -3925,7 +3939,7 @@
       <c r="Y67"/>
     </row>
     <row r="68" spans="2:25" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="32"/>
+      <c r="B68" s="34"/>
       <c r="C68" s="4" t="s">
         <v>160</v>
       </c>
@@ -3941,7 +3955,7 @@
       </c>
     </row>
     <row r="69" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B69" s="32"/>
+      <c r="B69" s="34"/>
       <c r="T69"/>
       <c r="Y69"/>
     </row>
@@ -3957,13 +3971,13 @@
       <c r="B72" t="s">
         <v>62</v>
       </c>
-      <c r="C72" s="32" t="s">
+      <c r="C72" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="D72" s="32"/>
-      <c r="E72" s="32"/>
-      <c r="F72" s="32"/>
-      <c r="G72" s="32"/>
+      <c r="D72" s="34"/>
+      <c r="E72" s="34"/>
+      <c r="F72" s="34"/>
+      <c r="G72" s="34"/>
       <c r="T72"/>
       <c r="Y72"/>
     </row>
@@ -3980,7 +3994,7 @@
       <c r="Y75"/>
     </row>
     <row r="76" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B76" s="33" t="s">
+      <c r="B76" s="35" t="s">
         <v>70</v>
       </c>
       <c r="C76" s="4" t="s">
@@ -3999,7 +4013,7 @@
       <c r="Y76"/>
     </row>
     <row r="77" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B77" s="32"/>
+      <c r="B77" s="34"/>
       <c r="C77" s="4" t="s">
         <v>5</v>
       </c>
@@ -4016,7 +4030,7 @@
       <c r="Y77"/>
     </row>
     <row r="78" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B78" s="32"/>
+      <c r="B78" s="34"/>
       <c r="C78" s="4" t="s">
         <v>10</v>
       </c>
@@ -4033,7 +4047,7 @@
       <c r="Y78"/>
     </row>
     <row r="79" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B79" s="32"/>
+      <c r="B79" s="34"/>
       <c r="C79" s="4" t="s">
         <v>11</v>
       </c>
@@ -4050,7 +4064,7 @@
       <c r="Y79"/>
     </row>
     <row r="80" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B80" s="32"/>
+      <c r="B80" s="34"/>
       <c r="C80" s="4" t="s">
         <v>241</v>
       </c>
@@ -4067,7 +4081,7 @@
       <c r="Y80"/>
     </row>
     <row r="81" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B81" s="32"/>
+      <c r="B81" s="34"/>
       <c r="C81" s="4" t="s">
         <v>242</v>
       </c>
@@ -4084,7 +4098,7 @@
       <c r="Y81"/>
     </row>
     <row r="82" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B82" s="32"/>
+      <c r="B82" s="34"/>
       <c r="C82" s="4" t="s">
         <v>243</v>
       </c>
@@ -4101,7 +4115,7 @@
       <c r="Y82"/>
     </row>
     <row r="83" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B83" s="32"/>
+      <c r="B83" s="34"/>
       <c r="C83" s="4" t="s">
         <v>244</v>
       </c>
@@ -4118,7 +4132,7 @@
       <c r="Y83"/>
     </row>
     <row r="84" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B84" s="32"/>
+      <c r="B84" s="34"/>
       <c r="C84" s="4" t="s">
         <v>245</v>
       </c>
@@ -4135,7 +4149,7 @@
       <c r="Y84"/>
     </row>
     <row r="85" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B85" s="32"/>
+      <c r="B85" s="34"/>
       <c r="C85" s="4" t="s">
         <v>246</v>
       </c>
@@ -4152,7 +4166,7 @@
       <c r="Y85"/>
     </row>
     <row r="86" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B86" s="32"/>
+      <c r="B86" s="34"/>
       <c r="C86" s="4" t="s">
         <v>247</v>
       </c>
@@ -4169,7 +4183,7 @@
       <c r="Y86"/>
     </row>
     <row r="87" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B87" s="32"/>
+      <c r="B87" s="34"/>
       <c r="C87" s="4" t="s">
         <v>248</v>
       </c>
@@ -4186,7 +4200,7 @@
       <c r="Y87"/>
     </row>
     <row r="88" spans="2:25" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="32"/>
+      <c r="B88" s="34"/>
       <c r="C88" s="4" t="s">
         <v>249</v>
       </c>
@@ -4201,7 +4215,7 @@
       </c>
     </row>
     <row r="89" spans="2:25" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="32"/>
+      <c r="B89" s="34"/>
       <c r="C89" s="4" t="s">
         <v>163</v>
       </c>
@@ -4216,7 +4230,7 @@
       </c>
     </row>
     <row r="90" spans="2:25" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="32"/>
+      <c r="B90" s="34"/>
       <c r="C90" s="4" t="s">
         <v>164</v>
       </c>
@@ -4231,7 +4245,7 @@
       </c>
     </row>
     <row r="91" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B91" s="32"/>
+      <c r="B91" s="34"/>
       <c r="T91"/>
       <c r="Y91"/>
     </row>
@@ -4247,13 +4261,13 @@
       <c r="B94" t="s">
         <v>64</v>
       </c>
-      <c r="C94" s="32" t="s">
+      <c r="C94" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="D94" s="32"/>
-      <c r="E94" s="32"/>
-      <c r="F94" s="32"/>
-      <c r="G94" s="32"/>
+      <c r="D94" s="34"/>
+      <c r="E94" s="34"/>
+      <c r="F94" s="34"/>
+      <c r="G94" s="34"/>
       <c r="T94"/>
       <c r="Y94"/>
     </row>
@@ -4266,7 +4280,7 @@
       <c r="Y96"/>
     </row>
     <row r="97" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B97" s="33" t="s">
+      <c r="B97" s="35" t="s">
         <v>267</v>
       </c>
       <c r="C97" s="4" t="s">
@@ -4285,7 +4299,7 @@
       <c r="Y97"/>
     </row>
     <row r="98" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B98" s="32"/>
+      <c r="B98" s="34"/>
       <c r="C98" s="4" t="s">
         <v>5</v>
       </c>
@@ -4302,7 +4316,7 @@
       <c r="Y98"/>
     </row>
     <row r="99" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B99" s="32"/>
+      <c r="B99" s="34"/>
       <c r="C99" s="4" t="s">
         <v>10</v>
       </c>
@@ -4319,7 +4333,7 @@
       <c r="Y99"/>
     </row>
     <row r="100" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B100" s="32"/>
+      <c r="B100" s="34"/>
       <c r="C100" s="4" t="s">
         <v>11</v>
       </c>
@@ -4336,7 +4350,7 @@
       <c r="Y100"/>
     </row>
     <row r="101" spans="2:25" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="32"/>
+      <c r="B101" s="34"/>
       <c r="C101" s="4" t="s">
         <v>241</v>
       </c>
@@ -4352,7 +4366,7 @@
       </c>
     </row>
     <row r="102" spans="2:25" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="32"/>
+      <c r="B102" s="34"/>
       <c r="C102" s="4" t="s">
         <v>269</v>
       </c>
@@ -4368,7 +4382,7 @@
       <c r="L102"/>
     </row>
     <row r="103" spans="2:25" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="32"/>
+      <c r="B103" s="34"/>
       <c r="C103" s="4" t="s">
         <v>271</v>
       </c>
@@ -4383,7 +4397,7 @@
       </c>
     </row>
     <row r="104" spans="2:25" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="32"/>
+      <c r="B104" s="34"/>
       <c r="C104" s="4" t="s">
         <v>273</v>
       </c>
@@ -4398,7 +4412,7 @@
       </c>
     </row>
     <row r="105" spans="2:25" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="32"/>
+      <c r="B105" s="34"/>
       <c r="C105" s="26" t="s">
         <v>501</v>
       </c>
@@ -4413,7 +4427,7 @@
       </c>
     </row>
     <row r="106" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B106" s="32"/>
+      <c r="B106" s="34"/>
       <c r="T106"/>
       <c r="Y106"/>
     </row>
@@ -4425,14 +4439,14 @@
       <c r="B108" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="C108" s="32" t="s">
+      <c r="C108" s="34" t="s">
         <v>268</v>
       </c>
-      <c r="D108" s="32"/>
-      <c r="E108" s="32"/>
-      <c r="F108" s="32"/>
-      <c r="G108" s="32"/>
-      <c r="H108" s="32"/>
+      <c r="D108" s="34"/>
+      <c r="E108" s="34"/>
+      <c r="F108" s="34"/>
+      <c r="G108" s="34"/>
+      <c r="H108" s="34"/>
       <c r="T108"/>
       <c r="Y108"/>
     </row>
@@ -4449,7 +4463,7 @@
       <c r="Y111"/>
     </row>
     <row r="112" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B112" s="33" t="s">
+      <c r="B112" s="35" t="s">
         <v>321</v>
       </c>
       <c r="C112" s="4" t="s">
@@ -4468,7 +4482,7 @@
       <c r="Y112"/>
     </row>
     <row r="113" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B113" s="32"/>
+      <c r="B113" s="34"/>
       <c r="C113" s="4" t="s">
         <v>5</v>
       </c>
@@ -4485,7 +4499,7 @@
       <c r="Y113"/>
     </row>
     <row r="114" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B114" s="32"/>
+      <c r="B114" s="34"/>
       <c r="C114" s="4" t="s">
         <v>10</v>
       </c>
@@ -4502,7 +4516,7 @@
       <c r="Y114"/>
     </row>
     <row r="115" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B115" s="32"/>
+      <c r="B115" s="34"/>
       <c r="C115" s="4" t="s">
         <v>11</v>
       </c>
@@ -4519,7 +4533,7 @@
       <c r="Y115"/>
     </row>
     <row r="116" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B116" s="32"/>
+      <c r="B116" s="34"/>
       <c r="C116" s="4" t="s">
         <v>241</v>
       </c>
@@ -4536,7 +4550,7 @@
       <c r="Y116"/>
     </row>
     <row r="117" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B117" s="32"/>
+      <c r="B117" s="34"/>
       <c r="C117" s="4" t="s">
         <v>269</v>
       </c>
@@ -4553,7 +4567,7 @@
       <c r="Y117"/>
     </row>
     <row r="118" spans="2:25" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B118" s="32"/>
+      <c r="B118" s="34"/>
       <c r="C118" s="4" t="s">
         <v>271</v>
       </c>
@@ -4569,7 +4583,7 @@
       </c>
     </row>
     <row r="119" spans="2:25" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B119" s="32"/>
+      <c r="B119" s="34"/>
       <c r="C119" s="4" t="s">
         <v>273</v>
       </c>
@@ -4584,7 +4598,7 @@
       </c>
     </row>
     <row r="120" spans="2:25" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="32"/>
+      <c r="B120" s="34"/>
       <c r="C120" s="11" t="s">
         <v>457</v>
       </c>
@@ -4600,10 +4614,10 @@
       </c>
     </row>
     <row r="121" spans="2:25" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="32"/>
+      <c r="B121" s="34"/>
     </row>
     <row r="122" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B122" s="32"/>
+      <c r="B122" s="34"/>
       <c r="T122"/>
       <c r="Y122"/>
     </row>
@@ -4619,13 +4633,13 @@
       <c r="B125" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="C125" s="32" t="s">
+      <c r="C125" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="D125" s="32"/>
-      <c r="E125" s="32"/>
-      <c r="F125" s="32"/>
-      <c r="G125" s="32"/>
+      <c r="D125" s="34"/>
+      <c r="E125" s="34"/>
+      <c r="F125" s="34"/>
+      <c r="G125" s="34"/>
       <c r="T125"/>
       <c r="Y125"/>
     </row>
@@ -4649,14 +4663,14 @@
       <c r="B130" t="s">
         <v>134</v>
       </c>
-      <c r="C130" s="30" t="s">
+      <c r="C130" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="D130" s="30"/>
-      <c r="E130" s="30"/>
-      <c r="F130" s="30"/>
-      <c r="G130" s="30"/>
-      <c r="H130" s="30"/>
+      <c r="D130" s="32"/>
+      <c r="E130" s="32"/>
+      <c r="F130" s="32"/>
+      <c r="G130" s="32"/>
+      <c r="H130" s="32"/>
       <c r="T130"/>
       <c r="Y130"/>
     </row>
@@ -5905,20 +5919,20 @@
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B2" s="11"/>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
       <c r="I2" s="11"/>
-      <c r="J2" s="37" t="s">
+      <c r="J2" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="11">
@@ -5927,11 +5941,11 @@
       <c r="C3" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
       <c r="G3" s="17" t="s">
         <v>375</v>
       </c>
@@ -5939,10 +5953,10 @@
       <c r="J3" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="K3" s="34" t="s">
+      <c r="K3" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="L3" s="35"/>
+      <c r="L3" s="37"/>
       <c r="M3" s="17" t="s">
         <v>123</v>
       </c>
@@ -5954,11 +5968,11 @@
       <c r="C4" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
       <c r="G4" s="17" t="s">
         <v>375</v>
       </c>
@@ -5966,10 +5980,10 @@
       <c r="J4" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="K4" s="34" t="s">
+      <c r="K4" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="L4" s="30"/>
+      <c r="L4" s="32"/>
       <c r="M4" s="17" t="s">
         <v>123</v>
       </c>
@@ -5981,20 +5995,20 @@
       <c r="C5" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
       <c r="G5" s="17"/>
       <c r="I5" s="11"/>
       <c r="J5" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="K5" s="30" t="s">
+      <c r="K5" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="L5" s="30"/>
+      <c r="L5" s="32"/>
       <c r="M5" s="17"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
@@ -6004,20 +6018,20 @@
       <c r="C6" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
       <c r="G6" s="17"/>
       <c r="I6" s="11"/>
       <c r="J6" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="K6" s="30" t="s">
+      <c r="K6" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="L6" s="30"/>
+      <c r="L6" s="32"/>
       <c r="M6" s="17"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
@@ -6027,20 +6041,20 @@
       <c r="C7" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
       <c r="G7" s="17"/>
       <c r="I7" s="11"/>
       <c r="J7" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="K7" s="30" t="s">
+      <c r="K7" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="L7" s="30"/>
+      <c r="L7" s="32"/>
       <c r="M7" s="17"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
@@ -6050,20 +6064,20 @@
       <c r="C8" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="32" t="s">
         <v>365</v>
       </c>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
       <c r="G8" s="17"/>
       <c r="I8" s="11"/>
       <c r="J8" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="K8" s="30" t="s">
+      <c r="K8" s="32" t="s">
         <v>365</v>
       </c>
-      <c r="L8" s="30"/>
+      <c r="L8" s="32"/>
       <c r="M8" s="17"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.3">
@@ -6073,10 +6087,10 @@
       <c r="C9" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="E9" s="38" t="s">
+      <c r="E9" s="39" t="s">
         <v>115</v>
       </c>
       <c r="F9" s="10" t="s">
@@ -6089,10 +6103,10 @@
       <c r="J9" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="K9" s="38" t="s">
+      <c r="K9" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="L9" s="38" t="s">
+      <c r="L9" s="39" t="s">
         <v>115</v>
       </c>
       <c r="M9" s="17" t="s">
@@ -6106,8 +6120,8 @@
       <c r="C10" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
       <c r="F10" s="9" t="s">
         <v>291</v>
       </c>
@@ -6116,8 +6130,8 @@
       <c r="J10" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
       <c r="M10" s="17"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">
@@ -6127,10 +6141,10 @@
       <c r="C11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="38" t="s">
+      <c r="D11" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="E11" s="30"/>
+      <c r="E11" s="32"/>
       <c r="F11" s="10" t="s">
         <v>448</v>
       </c>
@@ -6139,10 +6153,10 @@
       <c r="J11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="K11" s="38" t="s">
+      <c r="K11" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="L11" s="30"/>
+      <c r="L11" s="32"/>
       <c r="M11" s="17" t="s">
         <v>380</v>
       </c>
@@ -6154,8 +6168,8 @@
       <c r="C12" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
       <c r="F12" s="9" t="s">
         <v>291</v>
       </c>
@@ -6164,8 +6178,8 @@
       <c r="J12" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
       <c r="M12" s="17"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
@@ -6175,10 +6189,10 @@
       <c r="C13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="E13" s="38" t="s">
+      <c r="E13" s="39" t="s">
         <v>116</v>
       </c>
       <c r="F13" s="10" t="s">
@@ -6189,10 +6203,10 @@
       <c r="J13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="K13" s="38" t="s">
+      <c r="K13" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="L13" s="38" t="s">
+      <c r="L13" s="39" t="s">
         <v>116</v>
       </c>
       <c r="M13" s="17" t="s">
@@ -6206,8 +6220,8 @@
       <c r="C14" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
       <c r="F14" s="9" t="s">
         <v>291</v>
       </c>
@@ -6216,8 +6230,8 @@
       <c r="J14" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
       <c r="M14" s="17"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
@@ -6227,10 +6241,10 @@
       <c r="C15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="38" t="s">
+      <c r="D15" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="E15" s="30"/>
+      <c r="E15" s="32"/>
       <c r="F15" s="10" t="s">
         <v>448</v>
       </c>
@@ -6239,10 +6253,10 @@
       <c r="J15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="K15" s="38" t="s">
+      <c r="K15" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="L15" s="30"/>
+      <c r="L15" s="32"/>
       <c r="M15" s="17" t="s">
         <v>386</v>
       </c>
@@ -6254,8 +6268,8 @@
       <c r="C16" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
       <c r="F16" s="9" t="s">
         <v>291</v>
       </c>
@@ -6264,8 +6278,8 @@
       <c r="J16" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
       <c r="M16" s="17"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.3">
@@ -6275,11 +6289,11 @@
       <c r="C17" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D17" s="34" t="s">
+      <c r="D17" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
       <c r="G17" s="17" t="s">
         <v>375</v>
       </c>
@@ -6287,10 +6301,10 @@
       <c r="J17" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="K17" s="30" t="s">
+      <c r="K17" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="L17" s="30"/>
+      <c r="L17" s="32"/>
       <c r="M17" s="17" t="s">
         <v>123</v>
       </c>
@@ -6355,104 +6369,104 @@
     </row>
     <row r="22" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="11"/>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="40" t="s">
         <v>368</v>
       </c>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
       <c r="G22" s="11"/>
       <c r="I22" s="11"/>
-      <c r="J22" s="37" t="s">
+      <c r="J22" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="37"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="11"/>
       <c r="C23" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="30" t="s">
+      <c r="D23" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
       <c r="G23" s="11"/>
       <c r="I23" s="11"/>
       <c r="J23" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="K23" s="30" t="s">
+      <c r="K23" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="L23" s="30"/>
-      <c r="M23" s="30"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="32"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="11"/>
       <c r="C24" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D24" s="30" t="s">
+      <c r="D24" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
       <c r="G24" s="11"/>
       <c r="I24" s="11"/>
       <c r="J24" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="K24" s="30" t="s">
+      <c r="K24" s="32" t="s">
         <v>387</v>
       </c>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="32"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="11"/>
       <c r="C25" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="D25" s="30" t="s">
+      <c r="D25" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
       <c r="G25" s="11"/>
       <c r="I25" s="11"/>
       <c r="J25" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="K25" s="30" t="s">
+      <c r="K25" s="32" t="s">
         <v>369</v>
       </c>
-      <c r="L25" s="30"/>
-      <c r="M25" s="30"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="32"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="D26" s="30" t="s">
+      <c r="D26" s="32" t="s">
         <v>367</v>
       </c>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
       <c r="G26" s="11"/>
       <c r="I26" s="11"/>
       <c r="J26" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="K26" s="30" t="s">
+      <c r="K26" s="32" t="s">
         <v>366</v>
       </c>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="32"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="11"/>
@@ -6480,18 +6494,24 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E16"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="K15:K16"/>
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E12"/>
@@ -6500,24 +6520,18 @@
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="K11:K12"/>
     <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E16"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="K25:M25"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6540,13 +6554,13 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="38" t="s">
         <v>390</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="19">
@@ -6931,12 +6945,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="38" t="s">
         <v>370</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="19"/>
@@ -6975,12 +6989,12 @@
       <c r="E5" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6" s="19">
@@ -7010,13 +7024,13 @@
         <v>400</v>
       </c>
       <c r="H7" s="11"/>
-      <c r="I7" s="37" t="s">
+      <c r="I7" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="19">
@@ -7037,11 +7051,11 @@
       <c r="I8" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="J8" s="34" t="s">
+      <c r="J8" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
       <c r="M8" s="17" t="s">
         <v>375</v>
       </c>
@@ -7065,11 +7079,11 @@
       <c r="I9" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="J9" s="34" t="s">
+      <c r="J9" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
       <c r="M9" s="17" t="s">
         <v>375</v>
       </c>
@@ -7093,11 +7107,11 @@
       <c r="I10" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="J10" s="30" t="s">
+      <c r="J10" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
       <c r="M10" s="17"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">
@@ -7119,11 +7133,11 @@
       <c r="I11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="J11" s="30" t="s">
+      <c r="J11" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
       <c r="M11" s="17"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
@@ -7145,11 +7159,11 @@
       <c r="I12" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="J12" s="30" t="s">
+      <c r="J12" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
       <c r="M12" s="17"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
@@ -7171,11 +7185,11 @@
       <c r="I13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="J13" s="30" t="s">
+      <c r="J13" s="32" t="s">
         <v>365</v>
       </c>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
       <c r="M13" s="17"/>
     </row>
     <row r="14" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -7197,8 +7211,8 @@
       <c r="I14" s="22" t="s">
         <v>447</v>
       </c>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
       <c r="L14" s="23" t="s">
         <v>448</v>
       </c>
@@ -7225,8 +7239,8 @@
       <c r="I15" s="22" t="s">
         <v>447</v>
       </c>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
       <c r="L15" s="24" t="s">
         <v>291</v>
       </c>
@@ -7251,8 +7265,8 @@
       <c r="I16" s="22" t="s">
         <v>447</v>
       </c>
-      <c r="J16" s="38"/>
-      <c r="K16" s="30"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="32"/>
       <c r="L16" s="23" t="s">
         <v>448</v>
       </c>
@@ -7279,8 +7293,8 @@
       <c r="I17" s="22" t="s">
         <v>447</v>
       </c>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
       <c r="L17" s="24" t="s">
         <v>291</v>
       </c>
@@ -7305,8 +7319,8 @@
       <c r="I18" s="22" t="s">
         <v>447</v>
       </c>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
       <c r="L18" s="23" t="s">
         <v>448</v>
       </c>
@@ -7333,8 +7347,8 @@
       <c r="I19" s="22" t="s">
         <v>447</v>
       </c>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
       <c r="L19" s="24" t="s">
         <v>291</v>
       </c>
@@ -7359,8 +7373,8 @@
       <c r="I20" s="22" t="s">
         <v>447</v>
       </c>
-      <c r="J20" s="38"/>
-      <c r="K20" s="30"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="32"/>
       <c r="L20" s="23" t="s">
         <v>448</v>
       </c>
@@ -7387,8 +7401,8 @@
       <c r="I21" s="22" t="s">
         <v>447</v>
       </c>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
       <c r="L21" s="24" t="s">
         <v>291</v>
       </c>
@@ -7413,11 +7427,11 @@
       <c r="I22" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="J22" s="34" t="s">
+      <c r="J22" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
       <c r="M22" s="17" t="s">
         <v>375</v>
       </c>
@@ -7924,11 +7938,11 @@
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B63" s="11"/>
-      <c r="C63" s="37" t="s">
+      <c r="C63" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="D63" s="37"/>
-      <c r="E63" s="37"/>
+      <c r="D63" s="38"/>
+      <c r="E63" s="38"/>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B64" s="11"/>
@@ -8154,6 +8168,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="K14:K17"/>
     <mergeCell ref="J16:J17"/>
     <mergeCell ref="J18:J19"/>
     <mergeCell ref="C63:E63"/>
@@ -8170,7 +8185,6 @@
     <mergeCell ref="J12:L12"/>
     <mergeCell ref="J13:L13"/>
     <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K17"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8179,10 +8193,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H97"/>
+  <dimension ref="B2:H98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8197,11 +8211,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="32" t="s">
         <v>451</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
@@ -8451,11 +8465,11 @@
       <c r="H22" s="11"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="32" t="s">
         <v>450</v>
       </c>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
@@ -8679,11 +8693,11 @@
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B49" s="30" t="s">
+      <c r="B49" s="32" t="s">
         <v>464</v>
       </c>
-      <c r="C49" s="30"/>
-      <c r="D49" s="30"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B50" s="16" t="s">
@@ -8952,11 +8966,11 @@
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B75" s="30" t="s">
+      <c r="B75" s="32" t="s">
         <v>582</v>
       </c>
-      <c r="C75" s="30"/>
-      <c r="D75" s="30"/>
+      <c r="C75" s="32"/>
+      <c r="D75" s="32"/>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B76" s="29" t="s">
@@ -9013,7 +9027,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B81" s="27">
         <v>4</v>
       </c>
@@ -9024,7 +9038,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B82" s="27">
         <v>5</v>
       </c>
@@ -9035,7 +9049,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B83" s="27">
         <v>6</v>
       </c>
@@ -9046,91 +9060,98 @@
         <v>495</v>
       </c>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B84" s="27">
         <v>7</v>
       </c>
-      <c r="C84" s="28" t="s">
-        <v>304</v>
-      </c>
-      <c r="D84" s="28" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C84" s="31" t="s">
+        <v>591</v>
+      </c>
+      <c r="D84" s="31" t="s">
+        <v>592</v>
+      </c>
+      <c r="E84" s="17"/>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B85" s="27">
         <v>8</v>
       </c>
       <c r="C85" s="28" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D85" s="28" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.3">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B86" s="27">
         <v>9</v>
       </c>
       <c r="C86" s="28" t="s">
-        <v>587</v>
-      </c>
-      <c r="D86" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
+        <v>305</v>
+      </c>
+      <c r="D86" s="28" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B87" s="27">
         <v>10</v>
       </c>
       <c r="C87" s="28" t="s">
+        <v>587</v>
+      </c>
+      <c r="D87" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B88" s="30">
+        <v>11</v>
+      </c>
+      <c r="C88" s="28" t="s">
         <v>588</v>
       </c>
-      <c r="D87" s="28" t="s">
+      <c r="D88" s="28" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B88" s="27"/>
-      <c r="C88" s="28"/>
-      <c r="D88" s="28"/>
-    </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B89" s="27"/>
       <c r="C89" s="28"/>
       <c r="D89" s="28"/>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B90" s="27"/>
       <c r="C90" s="28"/>
       <c r="D90" s="28"/>
     </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B91" s="27"/>
       <c r="C91" s="28"/>
       <c r="D91" s="28"/>
     </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B92" s="27"/>
       <c r="C92" s="28"/>
       <c r="D92" s="28"/>
     </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B93" s="27"/>
       <c r="C93" s="28"/>
       <c r="D93" s="28"/>
     </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B94" s="27"/>
       <c r="C94" s="28"/>
       <c r="D94" s="28"/>
     </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B95" s="27"/>
       <c r="C95" s="28"/>
       <c r="D95" s="28"/>
     </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B96" s="27"/>
       <c r="C96" s="28"/>
       <c r="D96" s="28"/>
@@ -9139,6 +9160,11 @@
       <c r="B97" s="27"/>
       <c r="C97" s="28"/>
       <c r="D97" s="28"/>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B98" s="27"/>
+      <c r="C98" s="28"/>
+      <c r="D98" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="4">
